--- a/Code/Results/Cases/Case_5_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_27/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.795509698569987</v>
+        <v>2.249843321422986</v>
       </c>
       <c r="C2">
-        <v>0.5932901845047809</v>
+        <v>0.5047569751949652</v>
       </c>
       <c r="D2">
-        <v>0.05719195551073852</v>
+        <v>0.01481485115425585</v>
       </c>
       <c r="E2">
-        <v>0.05851417587476604</v>
+        <v>0.2092200936061701</v>
       </c>
       <c r="F2">
-        <v>2.494071819866633</v>
+        <v>1.337449850585813</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,39 +442,45 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.509792762697629</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5472700252742726</v>
+        <v>0.6145918751686921</v>
       </c>
       <c r="L2">
-        <v>0.1702819809820575</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.567547822182064</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.9241048245251235</v>
+      </c>
+      <c r="N2">
+        <v>0.7742864380538848</v>
+      </c>
+      <c r="O2">
+        <v>1.014987741651112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.547013982710808</v>
+        <v>1.942953583785823</v>
       </c>
       <c r="C3">
-        <v>0.5103392676872431</v>
+        <v>0.4370265094127319</v>
       </c>
       <c r="D3">
-        <v>0.05635614471128036</v>
+        <v>0.01601568121592667</v>
       </c>
       <c r="E3">
-        <v>0.05286036323291654</v>
+        <v>0.1813894746927929</v>
       </c>
       <c r="F3">
-        <v>2.234600829780291</v>
+        <v>1.201211079210339</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,39 +489,45 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.378294849309455</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4712502042907403</v>
+        <v>0.5305895443551734</v>
       </c>
       <c r="L3">
-        <v>0.1481337092230923</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4898369647864058</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.7969731197053278</v>
+      </c>
+      <c r="N3">
+        <v>0.8122972023260502</v>
+      </c>
+      <c r="O3">
+        <v>0.9182007620176904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.396666118835441</v>
+        <v>1.756713267614003</v>
       </c>
       <c r="C4">
-        <v>0.4602326993636723</v>
+        <v>0.3958518920748304</v>
       </c>
       <c r="D4">
-        <v>0.05590658987200925</v>
+        <v>0.01677523384987101</v>
       </c>
       <c r="E4">
-        <v>0.0494923930350204</v>
+        <v>0.1647304069415725</v>
       </c>
       <c r="F4">
-        <v>2.079821609638543</v>
+        <v>1.120463234530874</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,39 +536,45 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.300202207557859</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4252764519952379</v>
+        <v>0.4795863350463705</v>
       </c>
       <c r="L4">
-        <v>0.1348333156253325</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4429693954989702</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.7201120662473741</v>
+      </c>
+      <c r="N4">
+        <v>0.8372297772716806</v>
+      </c>
+      <c r="O4">
+        <v>0.861103631405463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.335874478834882</v>
+        <v>1.681287267015705</v>
       </c>
       <c r="C5">
-        <v>0.439988682629803</v>
+        <v>0.3791576275610566</v>
       </c>
       <c r="D5">
-        <v>0.0557378149467489</v>
+        <v>0.01709001303881275</v>
       </c>
       <c r="E5">
-        <v>0.04814325070706715</v>
+        <v>0.1580361186046773</v>
       </c>
       <c r="F5">
-        <v>2.017762889657234</v>
+        <v>1.088217576487935</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -559,39 +583,45 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.268975011936561</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4066914774351389</v>
+        <v>0.4589238171916747</v>
       </c>
       <c r="L5">
-        <v>0.1294790064951954</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4240543958309431</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.6890492816689857</v>
+      </c>
+      <c r="N5">
+        <v>0.8477704491216969</v>
+      </c>
+      <c r="O5">
+        <v>0.8383669283607986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.325806517381608</v>
+        <v>1.668788835478296</v>
       </c>
       <c r="C6">
-        <v>0.4366368337172162</v>
+        <v>0.3763901504455021</v>
       </c>
       <c r="D6">
-        <v>0.0557106176122879</v>
+        <v>0.01714259026035236</v>
       </c>
       <c r="E6">
-        <v>0.04792056138009215</v>
+        <v>0.1569298666972756</v>
       </c>
       <c r="F6">
-        <v>2.007515914253574</v>
+        <v>1.082901101174372</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -600,39 +630,45 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.263823842918455</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4036137534858355</v>
+        <v>0.4554995399422026</v>
       </c>
       <c r="L6">
-        <v>0.1285936362273503</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4209238785401581</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.6839057736637457</v>
+      </c>
+      <c r="N6">
+        <v>0.8495431331872467</v>
+      </c>
+      <c r="O6">
+        <v>0.8346220441154344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.395844438932244</v>
+        <v>1.755694254038104</v>
       </c>
       <c r="C7">
-        <v>0.4599590148832249</v>
+        <v>0.3956264282390691</v>
       </c>
       <c r="D7">
-        <v>0.05590425730160575</v>
+        <v>0.01677945820705862</v>
       </c>
       <c r="E7">
-        <v>0.04947410695274712</v>
+        <v>0.164639760139913</v>
       </c>
       <c r="F7">
-        <v>2.078980712714909</v>
+        <v>1.120025776101542</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -641,39 +677,45 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.299778740498667</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4250252363621811</v>
+        <v>0.4793072091546975</v>
       </c>
       <c r="L7">
-        <v>0.1347608513418272</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4427135932037913</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.719692149011621</v>
+      </c>
+      <c r="N7">
+        <v>0.837370417757846</v>
+      </c>
+      <c r="O7">
+        <v>0.86079491678273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.709312464291656</v>
+        <v>2.143521152877327</v>
       </c>
       <c r="C8">
-        <v>0.5644966473147122</v>
+        <v>0.4813060790529562</v>
       </c>
       <c r="D8">
-        <v>0.05688956234574505</v>
+        <v>0.01522406550653077</v>
       </c>
       <c r="E8">
-        <v>0.05654156842845737</v>
+        <v>0.1995265782585776</v>
       </c>
       <c r="F8">
-        <v>2.403585386272653</v>
+        <v>1.289828071965189</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -682,39 +724,45 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.463858999443218</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5208955027473294</v>
+        <v>0.5854943270432074</v>
       </c>
       <c r="L8">
-        <v>0.1625773260624648</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5405589199786291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.879994340440696</v>
+      </c>
+      <c r="N8">
+        <v>0.7870490128771692</v>
+      </c>
+      <c r="O8">
+        <v>0.9810973160290501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.345966061415254</v>
+        <v>2.925546647421868</v>
       </c>
       <c r="C9">
-        <v>0.7777025625188116</v>
+        <v>0.6535396839450129</v>
       </c>
       <c r="D9">
-        <v>0.05940651555683019</v>
+        <v>0.01236803356572524</v>
       </c>
       <c r="E9">
-        <v>0.07135673595161407</v>
+        <v>0.2720172730225556</v>
       </c>
       <c r="F9">
-        <v>3.082441938835075</v>
+        <v>1.649332753088828</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -723,39 +771,45 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.810112589173173</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7158356293911439</v>
+        <v>0.799421124497897</v>
       </c>
       <c r="L9">
-        <v>0.2199687583276457</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7406224236406658</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.20598031125472</v>
+      </c>
+      <c r="N9">
+        <v>0.7020189527386194</v>
+      </c>
+      <c r="O9">
+        <v>1.238238078793799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.833807596436657</v>
+        <v>3.51958861101707</v>
       </c>
       <c r="C10">
-        <v>0.9419705977653337</v>
+        <v>0.7841250974409206</v>
       </c>
       <c r="D10">
-        <v>0.06173903407565717</v>
+        <v>0.01041709447026218</v>
       </c>
       <c r="E10">
-        <v>0.08303514032431281</v>
+        <v>0.3288144641026634</v>
       </c>
       <c r="F10">
-        <v>3.616893262660881</v>
+        <v>1.935023342149194</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -764,39 +818,45 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.084902312315208</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.86544125151093</v>
+        <v>0.961828703535943</v>
       </c>
       <c r="L10">
-        <v>0.2646120345240632</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8949131655383411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.455883643804242</v>
+      </c>
+      <c r="N10">
+        <v>0.6494181007177531</v>
+      </c>
+      <c r="O10">
+        <v>1.444337774584866</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.061852578864773</v>
+        <v>3.795685757197077</v>
       </c>
       <c r="C11">
-        <v>1.019043151980668</v>
+        <v>0.8447875671842837</v>
       </c>
       <c r="D11">
-        <v>0.06293871231244452</v>
+        <v>0.009569647216826738</v>
       </c>
       <c r="E11">
-        <v>0.08857483553237344</v>
+        <v>0.3556923802763805</v>
       </c>
       <c r="F11">
-        <v>3.870350601864885</v>
+        <v>2.071043686872187</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -805,39 +865,45 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.215758103423468</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9354488346053103</v>
+        <v>1.037297746091227</v>
       </c>
       <c r="L11">
-        <v>0.2856530441659686</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9672919363650792</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.572675439349965</v>
+      </c>
+      <c r="N11">
+        <v>0.6280278669822295</v>
+      </c>
+      <c r="O11">
+        <v>1.542906090802589</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.14925770360253</v>
+        <v>3.901233052307646</v>
       </c>
       <c r="C12">
-        <v>1.048632965019834</v>
+        <v>0.8679757697480568</v>
       </c>
       <c r="D12">
-        <v>0.06341626139164447</v>
+        <v>0.009255332249675341</v>
       </c>
       <c r="E12">
-        <v>0.0907105026240913</v>
+        <v>0.3660460594719552</v>
       </c>
       <c r="F12">
-        <v>3.968063396009256</v>
+        <v>2.123552416967229</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -846,39 +912,45 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.266288835431837</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9622941172170414</v>
+        <v>1.06614690612173</v>
       </c>
       <c r="L12">
-        <v>0.2937448527890325</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9950733785039887</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.617429183349842</v>
+      </c>
+      <c r="N12">
+        <v>0.6203310585684463</v>
+      </c>
+      <c r="O12">
+        <v>1.58102600826183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.130383823285342</v>
+        <v>3.878454668730001</v>
       </c>
       <c r="C13">
-        <v>1.042241128491497</v>
+        <v>0.8629715234959008</v>
       </c>
       <c r="D13">
-        <v>0.06331231974554896</v>
+        <v>0.009322717381810008</v>
       </c>
       <c r="E13">
-        <v>0.09024877143953702</v>
+        <v>0.3638079493569961</v>
       </c>
       <c r="F13">
-        <v>3.946937750186152</v>
+        <v>2.11219697839941</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -887,39 +959,45 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.255360233406392</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9564966596564659</v>
+        <v>1.059920957868812</v>
       </c>
       <c r="L13">
-        <v>0.2919962944042567</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9890725371693776</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.607765831103279</v>
+      </c>
+      <c r="N13">
+        <v>0.6219701109538889</v>
+      </c>
+      <c r="O13">
+        <v>1.572779115212228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.0690213654633</v>
+        <v>3.804348312965658</v>
       </c>
       <c r="C14">
-        <v>1.021469007631907</v>
+        <v>0.8466907122699752</v>
       </c>
       <c r="D14">
-        <v>0.06297751355825199</v>
+        <v>0.009543650845693197</v>
       </c>
       <c r="E14">
-        <v>0.08874974588227147</v>
+        <v>0.3565405035363014</v>
       </c>
       <c r="F14">
-        <v>3.87835319448368</v>
+        <v>2.075342755763131</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -928,39 +1006,45 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.219894834350129</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9376503605142545</v>
+        <v>1.03966549915171</v>
       </c>
       <c r="L14">
-        <v>0.2863161597865016</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9695696912740033</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.576346295574282</v>
+      </c>
+      <c r="N14">
+        <v>0.627386328984386</v>
+      </c>
+      <c r="O14">
+        <v>1.54602569136587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.031577177323413</v>
+        <v>3.759090472104162</v>
       </c>
       <c r="C15">
-        <v>1.008800257230973</v>
+        <v>0.8367475940170834</v>
       </c>
       <c r="D15">
-        <v>0.06277557134509237</v>
+        <v>0.009679865153374045</v>
       </c>
       <c r="E15">
-        <v>0.08783665358708248</v>
+        <v>0.3521126797021594</v>
       </c>
       <c r="F15">
-        <v>3.836576948526812</v>
+        <v>2.052902926590562</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -969,39 +1053,45 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.198303069145723</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9261518213505155</v>
+        <v>1.027295034861737</v>
       </c>
       <c r="L15">
-        <v>0.2828536659678278</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9576740969425472</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.557172131987173</v>
+      </c>
+      <c r="N15">
+        <v>0.6307576444224807</v>
+      </c>
+      <c r="O15">
+        <v>1.529745126799327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.819041445971834</v>
+        <v>3.501675604816683</v>
       </c>
       <c r="C16">
-        <v>0.9369864249598265</v>
+        <v>0.7801889355979483</v>
       </c>
       <c r="D16">
-        <v>0.06166369423880269</v>
+        <v>0.01047335120047466</v>
       </c>
       <c r="E16">
-        <v>0.08267811102389544</v>
+        <v>0.3270810114596756</v>
       </c>
       <c r="F16">
-        <v>3.600557595132614</v>
+        <v>1.926266728605469</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1010,39 +1100,45 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.076479625750935</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8609098283192083</v>
+        <v>0.9569320894293583</v>
       </c>
       <c r="L16">
-        <v>0.2632532357039636</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8902319176923328</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.448320217803371</v>
+      </c>
+      <c r="N16">
+        <v>0.6508702384768057</v>
+      </c>
+      <c r="O16">
+        <v>1.438001400792373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.690338972048323</v>
+        <v>3.345364524430693</v>
       </c>
       <c r="C17">
-        <v>0.8935764321711588</v>
+        <v>0.7458383788244589</v>
       </c>
       <c r="D17">
-        <v>0.06101930512070908</v>
+        <v>0.01097093667975013</v>
       </c>
       <c r="E17">
-        <v>0.07957520105474813</v>
+        <v>0.3120088500559532</v>
       </c>
       <c r="F17">
-        <v>3.458579957262941</v>
+        <v>1.850218627883478</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1051,39 +1147,45 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.003335524261729</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8214220634971809</v>
+        <v>0.9142021302158128</v>
       </c>
       <c r="L17">
-        <v>0.2514291415962404</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8494583895952985</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.382393440028324</v>
+      </c>
+      <c r="N17">
+        <v>0.6638844998276952</v>
+      </c>
+      <c r="O17">
+        <v>1.383021116555668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.616877682783468</v>
+        <v>3.256000414503376</v>
       </c>
       <c r="C18">
-        <v>0.8688244729442545</v>
+        <v>0.7261969232481533</v>
       </c>
       <c r="D18">
-        <v>0.06066148914803193</v>
+        <v>0.0112608459621697</v>
       </c>
       <c r="E18">
-        <v>0.07781151555512267</v>
+        <v>0.303435947168623</v>
       </c>
       <c r="F18">
-        <v>3.377874028205298</v>
+        <v>1.807039385773024</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1092,39 +1194,45 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.961806625788824</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.798889735294658</v>
+        <v>0.8897717478713218</v>
       </c>
       <c r="L18">
-        <v>0.2446959273173732</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8262088577509417</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.344761440770299</v>
+      </c>
+      <c r="N18">
+        <v>0.6716063142715427</v>
+      </c>
+      <c r="O18">
+        <v>1.351844087976744</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.592097215396279</v>
+        <v>3.225831990842039</v>
       </c>
       <c r="C19">
-        <v>0.8604791572084025</v>
+        <v>0.7195655841894393</v>
       </c>
       <c r="D19">
-        <v>0.06054244729673997</v>
+        <v>0.01135961848582223</v>
       </c>
       <c r="E19">
-        <v>0.07721782466613192</v>
+        <v>0.3005490957429657</v>
       </c>
       <c r="F19">
-        <v>3.350705537712258</v>
+        <v>1.792512393265199</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1133,39 +1241,45 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.947834811773532</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7912900553441844</v>
+        <v>0.8815240426163911</v>
       </c>
       <c r="L19">
-        <v>0.2424272743817255</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8183700733851325</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.332066961954283</v>
+      </c>
+      <c r="N19">
+        <v>0.674260292608416</v>
+      </c>
+      <c r="O19">
+        <v>1.341361796582731</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.703979948815174</v>
+        <v>3.361946978604408</v>
       </c>
       <c r="C20">
-        <v>0.8981746585135113</v>
+        <v>0.7494827964582953</v>
       </c>
       <c r="D20">
-        <v>0.06108655216797132</v>
+        <v>0.01091757814853844</v>
       </c>
       <c r="E20">
-        <v>0.07990329922060724</v>
+        <v>0.3136031730413862</v>
       </c>
       <c r="F20">
-        <v>3.473593102103592</v>
+        <v>1.858255063400037</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1174,39 +1288,45 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.011064847250225</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8256066056932383</v>
+        <v>0.9187353288007927</v>
       </c>
       <c r="L20">
-        <v>0.252680703494164</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8537774662737334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.389381170837112</v>
+      </c>
+      <c r="N20">
+        <v>0.6624743855533666</v>
+      </c>
+      <c r="O20">
+        <v>1.388826982848386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.087015059521889</v>
+        <v>3.826086830749432</v>
       </c>
       <c r="C21">
-        <v>1.027558735166224</v>
+        <v>0.8514665947801916</v>
       </c>
       <c r="D21">
-        <v>0.06307519397909545</v>
+        <v>0.009478570947475617</v>
       </c>
       <c r="E21">
-        <v>0.08918897193582964</v>
+        <v>0.3586701389326095</v>
       </c>
       <c r="F21">
-        <v>3.898448929571799</v>
+        <v>2.086139461816572</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1215,39 +1335,45 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.230284139585095</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9431764135415506</v>
+        <v>1.045607310566723</v>
       </c>
       <c r="L21">
-        <v>0.2879810246175154</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9752875181413643</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.585559977413467</v>
+      </c>
+      <c r="N21">
+        <v>0.6257841830286921</v>
+      </c>
+      <c r="O21">
+        <v>1.553861387990949</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.343564156436855</v>
+        <v>4.135314794660417</v>
       </c>
       <c r="C22">
-        <v>1.114512542116216</v>
+        <v>0.9194016119049024</v>
       </c>
       <c r="D22">
-        <v>0.06451238296737216</v>
+        <v>0.008577036639366931</v>
       </c>
       <c r="E22">
-        <v>0.09548161003766609</v>
+        <v>0.3891621465669886</v>
       </c>
       <c r="F22">
-        <v>4.186365381427095</v>
+        <v>2.240980416330316</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1256,39 +1382,45 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.379338007173061</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.021998436519922</v>
+        <v>1.130126622419695</v>
       </c>
       <c r="L22">
-        <v>0.3117854680042171</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.05690968235394</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.716892017453219</v>
+      </c>
+      <c r="N22">
+        <v>0.6041765589233421</v>
+      </c>
+      <c r="O22">
+        <v>1.666407207604124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.206008230608461</v>
+        <v>3.969680283184289</v>
       </c>
       <c r="C23">
-        <v>1.067859929244577</v>
+        <v>0.8830130426942162</v>
       </c>
       <c r="D23">
-        <v>0.06373150781260506</v>
+        <v>0.009054323169312983</v>
       </c>
       <c r="E23">
-        <v>0.09210069584848668</v>
+        <v>0.372783494936705</v>
       </c>
       <c r="F23">
-        <v>4.031669788902235</v>
+        <v>2.157751466520452</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1297,39 +1429,45 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.299205741407434</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.979728095201736</v>
+        <v>1.084855244302574</v>
       </c>
       <c r="L23">
-        <v>0.2990065698553153</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.013122916325379</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.646483167224602</v>
+      </c>
+      <c r="N23">
+        <v>0.6154780403651472</v>
+      </c>
+      <c r="O23">
+        <v>1.605873433864559</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.697811220232268</v>
+        <v>3.354448501159595</v>
       </c>
       <c r="C24">
-        <v>0.896095166692362</v>
+        <v>0.7478348241752144</v>
       </c>
       <c r="D24">
-        <v>0.06105611061472871</v>
+        <v>0.01094168963880859</v>
       </c>
       <c r="E24">
-        <v>0.079754903449615</v>
+        <v>0.3128820940945829</v>
       </c>
       <c r="F24">
-        <v>3.466802815435813</v>
+        <v>1.854620112837523</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1338,39 +1476,45 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.007568802581005</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8237142495493543</v>
+        <v>0.9166854503519488</v>
       </c>
       <c r="L24">
-        <v>0.252114672476651</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8518242188464242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.38622118209895</v>
+      </c>
+      <c r="N24">
+        <v>0.6631111543035573</v>
+      </c>
+      <c r="O24">
+        <v>1.386200813086077</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.17074065303666</v>
+        <v>2.711067579743997</v>
       </c>
       <c r="C25">
-        <v>0.7188948359104472</v>
+        <v>0.6063519345197506</v>
       </c>
       <c r="D25">
-        <v>0.0586509166939635</v>
+        <v>0.01311717847130689</v>
       </c>
       <c r="E25">
-        <v>0.06722618864441898</v>
+        <v>0.2518686092588283</v>
       </c>
       <c r="F25">
-        <v>2.893311609696951</v>
+        <v>1.548714921577513</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1379,19 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.713293966338924</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6621497696580008</v>
+        <v>0.7407676832369248</v>
       </c>
       <c r="L25">
-        <v>0.2040669315495194</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6854012322055567</v>
+        <v>1.116226910752992</v>
+      </c>
+      <c r="N25">
+        <v>0.72341078160742</v>
+      </c>
+      <c r="O25">
+        <v>1.16599159183842</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_27/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.249843321422986</v>
+        <v>2.472591500528608</v>
       </c>
       <c r="C2">
-        <v>0.5047569751949652</v>
+        <v>0.7030242329472856</v>
       </c>
       <c r="D2">
-        <v>0.01481485115425585</v>
+        <v>0.1974744981815917</v>
       </c>
       <c r="E2">
-        <v>0.2092200936061701</v>
+        <v>0.1714492826370488</v>
       </c>
       <c r="F2">
-        <v>1.337449850585813</v>
+        <v>0.806714196289505</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2070196427451165</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1924722299244976</v>
       </c>
       <c r="K2">
-        <v>0.6145918751686921</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9241048245251235</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7742864380538848</v>
+        <v>0.7093006283513219</v>
       </c>
       <c r="O2">
-        <v>1.014987741651112</v>
+        <v>1.71554236015325</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.942953583785823</v>
+        <v>2.149771234905529</v>
       </c>
       <c r="C3">
-        <v>0.4370265094127319</v>
+        <v>0.611829615263872</v>
       </c>
       <c r="D3">
-        <v>0.01601568121592667</v>
+        <v>0.17649090139831</v>
       </c>
       <c r="E3">
-        <v>0.1813894746927929</v>
+        <v>0.152916462277247</v>
       </c>
       <c r="F3">
-        <v>1.201211079210339</v>
+        <v>0.7444107525819916</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2065455600841801</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1713459011993379</v>
       </c>
       <c r="K3">
-        <v>0.5305895443551734</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7969731197053278</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8122972023260502</v>
+        <v>0.7141055539564221</v>
       </c>
       <c r="O3">
-        <v>0.9182007620176904</v>
+        <v>1.597057263378247</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.756713267614003</v>
+        <v>1.951826409221695</v>
       </c>
       <c r="C4">
-        <v>0.3958518920748304</v>
+        <v>0.555908250605512</v>
       </c>
       <c r="D4">
-        <v>0.01677523384987101</v>
+        <v>0.1637456157403534</v>
       </c>
       <c r="E4">
-        <v>0.1647304069415725</v>
+        <v>0.1417155222863897</v>
       </c>
       <c r="F4">
-        <v>1.120463234530874</v>
+        <v>0.7077597634083475</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2069694517180309</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1586274743204754</v>
       </c>
       <c r="K4">
-        <v>0.4795863350463705</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7201120662473741</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8372297772716806</v>
+        <v>0.7179611671304187</v>
       </c>
       <c r="O4">
-        <v>0.861103631405463</v>
+        <v>1.528373191054555</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.681287267015705</v>
+        <v>1.871203401442813</v>
       </c>
       <c r="C5">
-        <v>0.3791576275610566</v>
+        <v>0.5331297059309748</v>
       </c>
       <c r="D5">
-        <v>0.01709001303881275</v>
+        <v>0.1585838551215488</v>
       </c>
       <c r="E5">
-        <v>0.1580361186046773</v>
+        <v>0.1371921620600709</v>
       </c>
       <c r="F5">
-        <v>1.088217576487935</v>
+        <v>0.6932008870713702</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2073125610099034</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.153502883873962</v>
       </c>
       <c r="K5">
-        <v>0.4589238171916747</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6890492816689857</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8477704491216969</v>
+        <v>0.7197522390552962</v>
       </c>
       <c r="O5">
-        <v>0.8383669283607986</v>
+        <v>1.501340061651007</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.668788835478296</v>
+        <v>1.857817759106894</v>
       </c>
       <c r="C6">
-        <v>0.3763901504455021</v>
+        <v>0.5293477078008095</v>
       </c>
       <c r="D6">
-        <v>0.01714259026035236</v>
+        <v>0.1577286043215906</v>
       </c>
       <c r="E6">
-        <v>0.1569298666972756</v>
+        <v>0.1364434398828855</v>
       </c>
       <c r="F6">
-        <v>1.082901101174372</v>
+        <v>0.6908053990981955</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2073795574685242</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1526553166425444</v>
       </c>
       <c r="K6">
-        <v>0.4554995399422026</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6839057736637457</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8495431331872467</v>
+        <v>0.720062706017373</v>
       </c>
       <c r="O6">
-        <v>0.8346220441154344</v>
+        <v>1.496907109624374</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.755694254038104</v>
+        <v>1.950738966214942</v>
       </c>
       <c r="C7">
-        <v>0.3956264282390691</v>
+        <v>0.555601021898724</v>
       </c>
       <c r="D7">
-        <v>0.01677945820705862</v>
+        <v>0.1636758763103359</v>
       </c>
       <c r="E7">
-        <v>0.164639760139913</v>
+        <v>0.1416543569662956</v>
       </c>
       <c r="F7">
-        <v>1.120025776101542</v>
+        <v>0.707561926121727</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2069734012924016</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1585581332879471</v>
       </c>
       <c r="K7">
-        <v>0.4793072091546975</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.719692149011621</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.837370417757846</v>
+        <v>0.717984441838297</v>
       </c>
       <c r="O7">
-        <v>0.86079491678273</v>
+        <v>1.528004826351548</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.143521152877327</v>
+        <v>2.361210968055673</v>
       </c>
       <c r="C8">
-        <v>0.4813060790529562</v>
+        <v>0.6715600469903222</v>
       </c>
       <c r="D8">
-        <v>0.01522406550653077</v>
+        <v>0.1902087973258233</v>
       </c>
       <c r="E8">
-        <v>0.1995265782585776</v>
+        <v>0.1650198557207503</v>
       </c>
       <c r="F8">
-        <v>1.289828071965189</v>
+        <v>0.7848827201472091</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2067019689245591</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1851319635854125</v>
       </c>
       <c r="K8">
-        <v>0.5854943270432074</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.879994340440696</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7870490128771692</v>
+        <v>0.7107646344913761</v>
       </c>
       <c r="O8">
-        <v>0.9810973160290501</v>
+        <v>1.673803712319881</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.925546647421868</v>
+        <v>3.169585284863274</v>
       </c>
       <c r="C9">
-        <v>0.6535396839450129</v>
+        <v>0.8999476163917848</v>
       </c>
       <c r="D9">
-        <v>0.01236803356572524</v>
+        <v>0.2434792539969521</v>
       </c>
       <c r="E9">
-        <v>0.2720172730225556</v>
+        <v>0.2124346112700835</v>
       </c>
       <c r="F9">
-        <v>1.649332753088828</v>
+        <v>0.9505087155736902</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.2122918676744305</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2395139809641051</v>
       </c>
       <c r="K9">
-        <v>0.799421124497897</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.20598031125472</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7020189527386194</v>
+        <v>0.7041641081654859</v>
       </c>
       <c r="O9">
-        <v>1.238238078793799</v>
+        <v>1.995163757912792</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.51958861101707</v>
+        <v>3.767615008124665</v>
       </c>
       <c r="C10">
-        <v>0.7841250974409206</v>
+        <v>1.06899108061765</v>
       </c>
       <c r="D10">
-        <v>0.01041709447026218</v>
+        <v>0.2835823623187963</v>
       </c>
       <c r="E10">
-        <v>0.3288144641026634</v>
+        <v>0.248513729870389</v>
       </c>
       <c r="F10">
-        <v>1.935023342149194</v>
+        <v>1.082631038887683</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.2207945747615909</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2812449866833617</v>
       </c>
       <c r="K10">
-        <v>0.961828703535943</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.455883643804242</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6494181007177531</v>
+        <v>0.7044766439466201</v>
       </c>
       <c r="O10">
-        <v>1.444337774584866</v>
+        <v>2.257616983637348</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.795685757197077</v>
+        <v>4.041060671006449</v>
       </c>
       <c r="C11">
-        <v>0.8447875671842837</v>
+        <v>1.146321552324821</v>
       </c>
       <c r="D11">
-        <v>0.009569647216826738</v>
+        <v>0.3020864652177266</v>
       </c>
       <c r="E11">
-        <v>0.3556923802763805</v>
+        <v>0.2652624082307398</v>
       </c>
       <c r="F11">
-        <v>2.071043686872187</v>
+        <v>1.145460105431155</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.2257757961358102</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3007098659212346</v>
       </c>
       <c r="K11">
-        <v>1.037297746091227</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.572675439349965</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6280278669822295</v>
+        <v>0.7058725412174596</v>
       </c>
       <c r="O11">
-        <v>1.542906090802589</v>
+        <v>2.38387391477724</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.901233052307646</v>
+        <v>4.144852201873277</v>
       </c>
       <c r="C12">
-        <v>0.8679757697480568</v>
+        <v>1.175680751531786</v>
       </c>
       <c r="D12">
-        <v>0.009255332249675341</v>
+        <v>0.3091355117835519</v>
       </c>
       <c r="E12">
-        <v>0.3660460594719552</v>
+        <v>0.2716588823668289</v>
       </c>
       <c r="F12">
-        <v>2.123552416967229</v>
+        <v>1.169684983661412</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.2278364716176853</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3081584240452742</v>
       </c>
       <c r="K12">
-        <v>1.06614690612173</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.617429183349842</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6203310585684463</v>
+        <v>0.7065933963099553</v>
       </c>
       <c r="O12">
-        <v>1.58102600826183</v>
+        <v>2.432774138229206</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.878454668730001</v>
+        <v>4.122487290112815</v>
       </c>
       <c r="C13">
-        <v>0.8629715234959008</v>
+        <v>1.169354118039109</v>
       </c>
       <c r="D13">
-        <v>0.009322717381810008</v>
+        <v>0.3076154339483281</v>
       </c>
       <c r="E13">
-        <v>0.3638079493569961</v>
+        <v>0.2702787834726834</v>
       </c>
       <c r="F13">
-        <v>2.11219697839941</v>
+        <v>1.164447784962505</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.2273846726352566</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3065506495472192</v>
       </c>
       <c r="K13">
-        <v>1.059920957868812</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.607765831103279</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6219701109538889</v>
+        <v>0.7064293964826476</v>
       </c>
       <c r="O13">
-        <v>1.572779115212228</v>
+        <v>2.422192432332054</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.804348312965658</v>
+        <v>4.049594524750205</v>
       </c>
       <c r="C14">
-        <v>0.8466907122699752</v>
+        <v>1.148735348460036</v>
       </c>
       <c r="D14">
-        <v>0.009543650845693197</v>
+        <v>0.3026655273609435</v>
       </c>
       <c r="E14">
-        <v>0.3565405035363014</v>
+        <v>0.265787530727799</v>
       </c>
       <c r="F14">
-        <v>2.075342755763131</v>
+        <v>1.147444179645419</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.2259417482197037</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3013210567162474</v>
       </c>
       <c r="K14">
-        <v>1.03966549915171</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.576346295574282</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.627386328984386</v>
+        <v>0.7059279215458503</v>
       </c>
       <c r="O14">
-        <v>1.54602569136587</v>
+        <v>2.387874517055508</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.759090472104162</v>
+        <v>4.004978645370045</v>
       </c>
       <c r="C15">
-        <v>0.8367475940170834</v>
+        <v>1.13611606077626</v>
       </c>
       <c r="D15">
-        <v>0.009679865153374045</v>
+        <v>0.2996391660082338</v>
       </c>
       <c r="E15">
-        <v>0.3521126797021594</v>
+        <v>0.2630437353556161</v>
       </c>
       <c r="F15">
-        <v>2.052902926590562</v>
+        <v>1.137086621575691</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.2250810696875227</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2981281517677985</v>
       </c>
       <c r="K15">
-        <v>1.027295034861737</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.557172131987173</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6307576444224807</v>
+        <v>0.7056461617170839</v>
       </c>
       <c r="O15">
-        <v>1.529745126799327</v>
+        <v>2.366998853364777</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.501675604816683</v>
+        <v>3.749776386415988</v>
       </c>
       <c r="C16">
-        <v>0.7801889355979483</v>
+        <v>1.063947187297657</v>
       </c>
       <c r="D16">
-        <v>0.01047335120047466</v>
+        <v>0.2823786970011355</v>
       </c>
       <c r="E16">
-        <v>0.3270810114596756</v>
+        <v>0.2474264114886324</v>
       </c>
       <c r="F16">
-        <v>1.926266728605469</v>
+        <v>1.078583287880875</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.2204926411782182</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2799833000042611</v>
       </c>
       <c r="K16">
-        <v>0.9569320894293583</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.448320217803371</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6508702384768057</v>
+        <v>0.7044116510321317</v>
       </c>
       <c r="O16">
-        <v>1.438001400792373</v>
+        <v>2.249512506158965</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.345364524430693</v>
+        <v>3.593605437780809</v>
       </c>
       <c r="C17">
-        <v>0.7458383788244589</v>
+        <v>1.019793899806018</v>
       </c>
       <c r="D17">
-        <v>0.01097093667975013</v>
+        <v>0.2718598382899273</v>
       </c>
       <c r="E17">
-        <v>0.3120088500559532</v>
+        <v>0.2379357452167028</v>
       </c>
       <c r="F17">
-        <v>1.850218627883478</v>
+        <v>1.043419675598557</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.217972777137966</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2689810650405633</v>
       </c>
       <c r="K17">
-        <v>0.9142021302158128</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.382393440028324</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6638844998276952</v>
+        <v>0.7039836795927954</v>
       </c>
       <c r="O17">
-        <v>1.383021116555668</v>
+        <v>2.179267138210719</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.256000414503376</v>
+        <v>3.503908966906408</v>
       </c>
       <c r="C18">
-        <v>0.7261969232481533</v>
+        <v>0.9944378421942872</v>
       </c>
       <c r="D18">
-        <v>0.0112608459621697</v>
+        <v>0.26583395120646</v>
       </c>
       <c r="E18">
-        <v>0.303435947168623</v>
+        <v>0.2325082285866813</v>
       </c>
       <c r="F18">
-        <v>1.807039385773024</v>
+        <v>1.023448447201943</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.2166272895246344</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2626976233812144</v>
       </c>
       <c r="K18">
-        <v>0.8897717478713218</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.344761440770299</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6716063142715427</v>
+        <v>0.7038547613806969</v>
       </c>
       <c r="O18">
-        <v>1.351844087976744</v>
+        <v>2.139503515999564</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.225831990842039</v>
+        <v>3.473560191887884</v>
       </c>
       <c r="C19">
-        <v>0.7195655841894393</v>
+        <v>0.9858591441385727</v>
       </c>
       <c r="D19">
-        <v>0.01135961848582223</v>
+        <v>0.2637977310011195</v>
       </c>
       <c r="E19">
-        <v>0.3005490957429657</v>
+        <v>0.2306757654906022</v>
       </c>
       <c r="F19">
-        <v>1.792512393265199</v>
+        <v>1.01672895417218</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.216189151922169</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2605775983876413</v>
       </c>
       <c r="K19">
-        <v>0.8815240426163911</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.332066961954283</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.674260292608416</v>
+        <v>0.7038308969263198</v>
       </c>
       <c r="O19">
-        <v>1.341361796582731</v>
+        <v>2.126147112342238</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.361946978604408</v>
+        <v>3.610216462362928</v>
       </c>
       <c r="C20">
-        <v>0.7494827964582953</v>
+        <v>1.024489883465179</v>
       </c>
       <c r="D20">
-        <v>0.01091757814853844</v>
+        <v>0.2729770447703999</v>
       </c>
       <c r="E20">
-        <v>0.3136031730413862</v>
+        <v>0.2389427667546116</v>
       </c>
       <c r="F20">
-        <v>1.858255063400037</v>
+        <v>1.04713633306126</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.2182301704279048</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2701475810611242</v>
       </c>
       <c r="K20">
-        <v>0.9187353288007927</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.389381170837112</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6624743855533666</v>
+        <v>0.7040170200125573</v>
       </c>
       <c r="O20">
-        <v>1.388826982848386</v>
+        <v>2.186677960565703</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.826086830749432</v>
+        <v>4.070997929609518</v>
       </c>
       <c r="C21">
-        <v>0.8514665947801916</v>
+        <v>1.154789407240344</v>
       </c>
       <c r="D21">
-        <v>0.009478570947475617</v>
+        <v>0.3041182596351177</v>
       </c>
       <c r="E21">
-        <v>0.3586701389326095</v>
+        <v>0.2671052035283239</v>
       </c>
       <c r="F21">
-        <v>2.086139461816572</v>
+        <v>1.152426460792682</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.2263607176878359</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3028549374321869</v>
       </c>
       <c r="K21">
-        <v>1.045607310566723</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.585559977413467</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6257841830286921</v>
+        <v>0.7060698992714265</v>
       </c>
       <c r="O21">
-        <v>1.553861387990949</v>
+        <v>2.39792409845569</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.135314794660417</v>
+        <v>4.373587468424773</v>
       </c>
       <c r="C22">
-        <v>0.9194016119049024</v>
+        <v>1.240396955276424</v>
       </c>
       <c r="D22">
-        <v>0.008577036639366931</v>
+        <v>0.3247176344351743</v>
       </c>
       <c r="E22">
-        <v>0.3891621465669886</v>
+        <v>0.2858294219365973</v>
       </c>
       <c r="F22">
-        <v>2.240980416330316</v>
+        <v>1.223784112092247</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.2326984435575064</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3246879943966547</v>
       </c>
       <c r="K22">
-        <v>1.130126622419695</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.716892017453219</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6041765589233421</v>
+        <v>0.7085384019831338</v>
       </c>
       <c r="O22">
-        <v>1.666407207604124</v>
+        <v>2.542389249198266</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.969680283184289</v>
+        <v>4.211942789659417</v>
       </c>
       <c r="C23">
-        <v>0.8830130426942162</v>
+        <v>1.194660615808289</v>
       </c>
       <c r="D23">
-        <v>0.009054323169312983</v>
+        <v>0.3136992275909023</v>
       </c>
       <c r="E23">
-        <v>0.372783494936705</v>
+        <v>0.275804783454376</v>
       </c>
       <c r="F23">
-        <v>2.157751466520452</v>
+        <v>1.185452008637441</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.2292171754189987</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.312990506456984</v>
       </c>
       <c r="K23">
-        <v>1.084855244302574</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.646483167224602</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6154780403651472</v>
+        <v>0.7071136239032825</v>
       </c>
       <c r="O23">
-        <v>1.605873433864559</v>
+        <v>2.464663645838613</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.354448501159595</v>
+        <v>3.602706346315074</v>
       </c>
       <c r="C24">
-        <v>0.7478348241752144</v>
+        <v>1.022366742266428</v>
       </c>
       <c r="D24">
-        <v>0.01094168963880859</v>
+        <v>0.2724718889422917</v>
       </c>
       <c r="E24">
-        <v>0.3128820940945829</v>
+        <v>0.2384874030624786</v>
       </c>
       <c r="F24">
-        <v>1.854620112837523</v>
+        <v>1.045455272775584</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.2181134824961468</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.269620069320041</v>
       </c>
       <c r="K24">
-        <v>0.9166854503519488</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.38622118209895</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6631111543035573</v>
+        <v>0.7040015828757475</v>
       </c>
       <c r="O24">
-        <v>1.386200813086077</v>
+        <v>2.183325599963382</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.711067579743997</v>
+        <v>2.95033113965917</v>
       </c>
       <c r="C25">
-        <v>0.6063519345197506</v>
+        <v>0.8379933154172363</v>
       </c>
       <c r="D25">
-        <v>0.01311717847130689</v>
+        <v>0.2289147336982182</v>
       </c>
       <c r="E25">
-        <v>0.2518686092588283</v>
+        <v>0.1994100736928104</v>
       </c>
       <c r="F25">
-        <v>1.548714921577513</v>
+        <v>0.9040153232728585</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.2100584193493447</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2245203109848859</v>
       </c>
       <c r="K25">
-        <v>0.7407676832369248</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.116226910752992</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.72341078160742</v>
+        <v>0.7050857103877703</v>
       </c>
       <c r="O25">
-        <v>1.16599159183842</v>
+        <v>1.90396300649175</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_27/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.472591500528608</v>
+        <v>0.9202686041625157</v>
       </c>
       <c r="C2">
-        <v>0.7030242329472856</v>
+        <v>0.2312851940432097</v>
       </c>
       <c r="D2">
-        <v>0.1974744981815917</v>
+        <v>0.2216154181053156</v>
       </c>
       <c r="E2">
-        <v>0.1714492826370488</v>
+        <v>0.1739950061645459</v>
       </c>
       <c r="F2">
-        <v>0.806714196289505</v>
+        <v>1.158484340464028</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2070196427451165</v>
+        <v>0.4743025055241681</v>
       </c>
       <c r="J2">
-        <v>0.1924722299244976</v>
+        <v>0.181440027653359</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7093006283513219</v>
+        <v>1.002392765118174</v>
       </c>
       <c r="O2">
-        <v>1.71554236015325</v>
+        <v>2.593177007097211</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.149771234905529</v>
+        <v>0.8229987116440611</v>
       </c>
       <c r="C3">
-        <v>0.611829615263872</v>
+        <v>0.2035736324698121</v>
       </c>
       <c r="D3">
-        <v>0.17649090139831</v>
+        <v>0.2168581183873073</v>
       </c>
       <c r="E3">
-        <v>0.152916462277247</v>
+        <v>0.1700559920835012</v>
       </c>
       <c r="F3">
-        <v>0.7444107525819916</v>
+        <v>1.152771200007365</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2065455600841801</v>
+        <v>0.4795121132207818</v>
       </c>
       <c r="J3">
-        <v>0.1713459011993379</v>
+        <v>0.1771225843947235</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7141055539564221</v>
+        <v>1.006460705725516</v>
       </c>
       <c r="O3">
-        <v>1.597057263378247</v>
+        <v>2.588672475194073</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.951826409221695</v>
+        <v>0.7632777456278461</v>
       </c>
       <c r="C4">
-        <v>0.555908250605512</v>
+        <v>0.1865297834987416</v>
       </c>
       <c r="D4">
-        <v>0.1637456157403534</v>
+        <v>0.2140201439043494</v>
       </c>
       <c r="E4">
-        <v>0.1417155222863897</v>
+        <v>0.1677234901445317</v>
       </c>
       <c r="F4">
-        <v>0.7077597634083475</v>
+        <v>1.150013388387926</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2069694517180309</v>
+        <v>0.4830496188176774</v>
       </c>
       <c r="J4">
-        <v>0.1586274743204754</v>
+        <v>0.1745782619092537</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7179611671304187</v>
+        <v>1.009372486929486</v>
       </c>
       <c r="O4">
-        <v>1.528373191054555</v>
+        <v>2.587734933961968</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.871203401442813</v>
+        <v>0.7389432360144497</v>
       </c>
       <c r="C5">
-        <v>0.5331297059309748</v>
+        <v>0.1795773785316896</v>
       </c>
       <c r="D5">
-        <v>0.1585838551215488</v>
+        <v>0.21288461906002</v>
       </c>
       <c r="E5">
-        <v>0.1371921620600709</v>
+        <v>0.1667946530482958</v>
       </c>
       <c r="F5">
-        <v>0.6932008870713702</v>
+        <v>1.149078023406766</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2073125610099034</v>
+        <v>0.4845762209298066</v>
       </c>
       <c r="J5">
-        <v>0.153502883873962</v>
+        <v>0.1735682267089231</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7197522390552962</v>
+        <v>1.010663349112754</v>
       </c>
       <c r="O5">
-        <v>1.501340061651007</v>
+        <v>2.587811949816654</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.857817759106894</v>
+        <v>0.7349026898979218</v>
       </c>
       <c r="C6">
-        <v>0.5293477078008095</v>
+        <v>0.1784225307842746</v>
       </c>
       <c r="D6">
-        <v>0.1577286043215906</v>
+        <v>0.2126973355311748</v>
       </c>
       <c r="E6">
-        <v>0.1364434398828855</v>
+        <v>0.1666417305556678</v>
       </c>
       <c r="F6">
-        <v>0.6908053990981955</v>
+        <v>1.148934085324989</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2073795574685242</v>
+        <v>0.4848348438394758</v>
       </c>
       <c r="J6">
-        <v>0.1526553166425444</v>
+        <v>0.1734021293204577</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.720062706017373</v>
+        <v>1.010883999665111</v>
       </c>
       <c r="O6">
-        <v>1.496907109624374</v>
+        <v>2.58785244577922</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.950738966214942</v>
+        <v>0.7629495507722766</v>
       </c>
       <c r="C7">
-        <v>0.555601021898724</v>
+        <v>0.1864360483944836</v>
       </c>
       <c r="D7">
-        <v>0.1636758763103359</v>
+        <v>0.2140047447755933</v>
       </c>
       <c r="E7">
-        <v>0.1416543569662956</v>
+        <v>0.1677108757105437</v>
       </c>
       <c r="F7">
-        <v>0.707561926121727</v>
+        <v>1.150000010836642</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2069734012924016</v>
+        <v>0.483069862985154</v>
       </c>
       <c r="J7">
-        <v>0.1585581332879471</v>
+        <v>0.1745645317340276</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.717984441838297</v>
+        <v>1.009389473461688</v>
       </c>
       <c r="O7">
-        <v>1.528004826351548</v>
+        <v>2.587734114741636</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.361210968055673</v>
+        <v>0.8867301493752393</v>
       </c>
       <c r="C8">
-        <v>0.6715600469903222</v>
+        <v>0.2217364363938543</v>
       </c>
       <c r="D8">
-        <v>0.1902087973258233</v>
+        <v>0.2199579240351284</v>
       </c>
       <c r="E8">
-        <v>0.1650198557207503</v>
+        <v>0.1726189891446879</v>
       </c>
       <c r="F8">
-        <v>0.7848827201472091</v>
+        <v>1.156358676151896</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2067019689245591</v>
+        <v>0.4760283728502905</v>
       </c>
       <c r="J8">
-        <v>0.1851319635854125</v>
+        <v>0.1799292395573246</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7107646344913761</v>
+        <v>1.003709555393627</v>
       </c>
       <c r="O8">
-        <v>1.673803712319881</v>
+        <v>2.591243982878581</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.169585284863274</v>
+        <v>1.129435424059977</v>
       </c>
       <c r="C9">
-        <v>0.8999476163917848</v>
+        <v>0.290719381029561</v>
       </c>
       <c r="D9">
-        <v>0.2434792539969521</v>
+        <v>0.2322874718304462</v>
       </c>
       <c r="E9">
-        <v>0.2124346112700835</v>
+        <v>0.1829259138570833</v>
       </c>
       <c r="F9">
-        <v>0.9505087155736902</v>
+        <v>1.174788671659812</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2122918676744305</v>
+        <v>0.4649149978424632</v>
       </c>
       <c r="J9">
-        <v>0.2395139809641051</v>
+        <v>0.1912965171574541</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7041641081654859</v>
+        <v>0.995849766821209</v>
       </c>
       <c r="O9">
-        <v>1.995163757912792</v>
+        <v>2.61266752243327</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.767615008124665</v>
+        <v>1.307680207747183</v>
       </c>
       <c r="C10">
-        <v>1.06899108061765</v>
+        <v>0.3412427635976201</v>
       </c>
       <c r="D10">
-        <v>0.2835823623187963</v>
+        <v>0.2417421073335788</v>
       </c>
       <c r="E10">
-        <v>0.248513729870389</v>
+        <v>0.1909142272174051</v>
       </c>
       <c r="F10">
-        <v>1.082631038887683</v>
+        <v>1.191979143481902</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2207945747615909</v>
+        <v>0.4584025110627081</v>
       </c>
       <c r="J10">
-        <v>0.2812449866833617</v>
+        <v>0.2001673305942404</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7044766439466201</v>
+        <v>0.992065850044213</v>
       </c>
       <c r="O10">
-        <v>2.257616983637348</v>
+        <v>2.6373257986711</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.041060671006449</v>
+        <v>1.388742744772173</v>
       </c>
       <c r="C11">
-        <v>1.146321552324821</v>
+        <v>0.3641906446387679</v>
       </c>
       <c r="D11">
-        <v>0.3020864652177266</v>
+        <v>0.2461286260977857</v>
       </c>
       <c r="E11">
-        <v>0.2652624082307398</v>
+        <v>0.1946386679148375</v>
       </c>
       <c r="F11">
-        <v>1.145460105431155</v>
+        <v>1.200595791623698</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2257757961358102</v>
+        <v>0.4558007153940231</v>
       </c>
       <c r="J11">
-        <v>0.3007098659212346</v>
+        <v>0.2043163326975872</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7058725412174596</v>
+        <v>0.9907751797901483</v>
       </c>
       <c r="O11">
-        <v>2.38387391477724</v>
+        <v>2.650492070846241</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.144852201873277</v>
+        <v>1.41943461133161</v>
       </c>
       <c r="C12">
-        <v>1.175680751531786</v>
+        <v>0.3728750208106817</v>
       </c>
       <c r="D12">
-        <v>0.3091355117835519</v>
+        <v>0.2478019101156121</v>
       </c>
       <c r="E12">
-        <v>0.2716588823668289</v>
+        <v>0.1960620151282626</v>
       </c>
       <c r="F12">
-        <v>1.169684983661412</v>
+        <v>1.203973474671187</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2278364716176853</v>
+        <v>0.4548675317125515</v>
       </c>
       <c r="J12">
-        <v>0.3081584240452742</v>
+        <v>0.2059038214717788</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7065933963099553</v>
+        <v>0.9903482356932187</v>
       </c>
       <c r="O12">
-        <v>2.432774138229206</v>
+        <v>2.655758922750948</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.122487290112815</v>
+        <v>1.412824805813159</v>
       </c>
       <c r="C13">
-        <v>1.169354118039109</v>
+        <v>0.3710049353031195</v>
       </c>
       <c r="D13">
-        <v>0.3076154339483281</v>
+        <v>0.2474409972297167</v>
       </c>
       <c r="E13">
-        <v>0.2702787834726834</v>
+        <v>0.1957548949851073</v>
       </c>
       <c r="F13">
-        <v>1.164447784962505</v>
+        <v>1.203240923791597</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2273846726352566</v>
+        <v>0.4550661912411407</v>
       </c>
       <c r="J13">
-        <v>0.3065506495472192</v>
+        <v>0.205561199913447</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7064293964826476</v>
+        <v>0.9904374388545847</v>
       </c>
       <c r="O13">
-        <v>2.422192432332054</v>
+        <v>2.654612098670412</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.049594524750205</v>
+        <v>1.391267887626498</v>
       </c>
       <c r="C14">
-        <v>1.148735348460036</v>
+        <v>0.3649052257149492</v>
       </c>
       <c r="D14">
-        <v>0.3026655273609435</v>
+        <v>0.2462660441470632</v>
       </c>
       <c r="E14">
-        <v>0.265787530727799</v>
+        <v>0.1947555075551008</v>
       </c>
       <c r="F14">
-        <v>1.147444179645419</v>
+        <v>1.200871374868484</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2259417482197037</v>
+        <v>0.4557228974114302</v>
       </c>
       <c r="J14">
-        <v>0.3013210567162474</v>
+        <v>0.2044466085699383</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7059279215458503</v>
+        <v>0.9907388168662123</v>
       </c>
       <c r="O14">
-        <v>2.387874517055508</v>
+        <v>2.650919740319239</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.004978645370045</v>
+        <v>1.378062985704105</v>
       </c>
       <c r="C15">
-        <v>1.13611606077626</v>
+        <v>0.3611682511832441</v>
       </c>
       <c r="D15">
-        <v>0.2996391660082338</v>
+        <v>0.2455479379308798</v>
       </c>
       <c r="E15">
-        <v>0.2630437353556161</v>
+        <v>0.1941450435771799</v>
       </c>
       <c r="F15">
-        <v>1.137086621575691</v>
+        <v>1.199434906690996</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2250810696875227</v>
+        <v>0.4561319340344276</v>
       </c>
       <c r="J15">
-        <v>0.2981281517677985</v>
+        <v>0.2037660190389232</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7056461617170839</v>
+        <v>0.9909314648552652</v>
       </c>
       <c r="O15">
-        <v>2.366998853364777</v>
+        <v>2.648694691370082</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.749776386415988</v>
+        <v>1.302382002015577</v>
       </c>
       <c r="C16">
-        <v>1.063947187297657</v>
+        <v>0.339742318766298</v>
       </c>
       <c r="D16">
-        <v>0.2823786970011355</v>
+        <v>0.2414571512298949</v>
       </c>
       <c r="E16">
-        <v>0.2474264114886324</v>
+        <v>0.1906726447961233</v>
       </c>
       <c r="F16">
-        <v>1.078583287880875</v>
+        <v>1.191432071721692</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2204926411782182</v>
+        <v>0.4585798196456921</v>
       </c>
       <c r="J16">
-        <v>0.2799833000042611</v>
+        <v>0.1998984710505312</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7044116510321317</v>
+        <v>0.9921588536034704</v>
       </c>
       <c r="O16">
-        <v>2.249512506158965</v>
+        <v>2.636504640428456</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.593605437780809</v>
+        <v>1.255947413905631</v>
       </c>
       <c r="C17">
-        <v>1.019793899806018</v>
+        <v>0.3265888439129583</v>
       </c>
       <c r="D17">
-        <v>0.2718598382899273</v>
+        <v>0.2389694293160574</v>
       </c>
       <c r="E17">
-        <v>0.2379357452167028</v>
+        <v>0.1885656000784977</v>
       </c>
       <c r="F17">
-        <v>1.043419675598557</v>
+        <v>1.186726761655919</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.217972777137966</v>
+        <v>0.4601740488354622</v>
       </c>
       <c r="J17">
-        <v>0.2689810650405633</v>
+        <v>0.197554966648795</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7039836795927954</v>
+        <v>0.9930220282897011</v>
       </c>
       <c r="O17">
-        <v>2.179267138210719</v>
+        <v>2.629526214108324</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.503908966906408</v>
+        <v>1.229237500509328</v>
       </c>
       <c r="C18">
-        <v>0.9944378421942872</v>
+        <v>0.3190199987077449</v>
       </c>
       <c r="D18">
-        <v>0.26583395120646</v>
+        <v>0.2375466164430833</v>
       </c>
       <c r="E18">
-        <v>0.2325082285866813</v>
+        <v>0.1873622055931037</v>
       </c>
       <c r="F18">
-        <v>1.023448447201943</v>
+        <v>1.184095361538581</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2166272895246344</v>
+        <v>0.4611249535400326</v>
       </c>
       <c r="J18">
-        <v>0.2626976233812144</v>
+        <v>0.196217739038417</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7038547613806969</v>
+        <v>0.9935590455538232</v>
       </c>
       <c r="O18">
-        <v>2.139503515999564</v>
+        <v>2.625695818934162</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.473560191887884</v>
+        <v>1.220193694057514</v>
       </c>
       <c r="C19">
-        <v>0.9858591441385727</v>
+        <v>0.3164567604052309</v>
       </c>
       <c r="D19">
-        <v>0.2637977310011195</v>
+        <v>0.237066263592439</v>
       </c>
       <c r="E19">
-        <v>0.2306757654906022</v>
+        <v>0.1869562215739222</v>
       </c>
       <c r="F19">
-        <v>1.01672895417218</v>
+        <v>1.183217284921966</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.216189151922169</v>
+        <v>0.4614527382894202</v>
       </c>
       <c r="J19">
-        <v>0.2605775983876413</v>
+        <v>0.1957668130865216</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7038308969263198</v>
+        <v>0.9937478373308863</v>
       </c>
       <c r="O19">
-        <v>2.126147112342238</v>
+        <v>2.624430389819338</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.610216462362928</v>
+        <v>1.260890670251626</v>
       </c>
       <c r="C20">
-        <v>1.024489883465179</v>
+        <v>0.327989399615177</v>
       </c>
       <c r="D20">
-        <v>0.2729770447703999</v>
+        <v>0.2392334182006834</v>
       </c>
       <c r="E20">
-        <v>0.2389427667546116</v>
+        <v>0.1887890168460089</v>
       </c>
       <c r="F20">
-        <v>1.04713633306126</v>
+        <v>1.187219889452763</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2182301704279048</v>
+        <v>0.4600008257882635</v>
       </c>
       <c r="J20">
-        <v>0.2701475810611242</v>
+        <v>0.1978033297982051</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7040170200125573</v>
+        <v>0.9929259468281089</v>
       </c>
       <c r="O20">
-        <v>2.186677960565703</v>
+        <v>2.630250091395396</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.070997929609518</v>
+        <v>1.397599818925983</v>
       </c>
       <c r="C21">
-        <v>1.154789407240344</v>
+        <v>0.3666970103288349</v>
       </c>
       <c r="D21">
-        <v>0.3041182596351177</v>
+        <v>0.2466108259054778</v>
       </c>
       <c r="E21">
-        <v>0.2671052035283239</v>
+        <v>0.195048699801653</v>
       </c>
       <c r="F21">
-        <v>1.152426460792682</v>
+        <v>1.201564253133029</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2263607176878359</v>
+        <v>0.4555285925504897</v>
       </c>
       <c r="J21">
-        <v>0.3028549374321869</v>
+        <v>0.2047735471842458</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7060698992714265</v>
+        <v>0.9906486184257659</v>
       </c>
       <c r="O21">
-        <v>2.39792409845569</v>
+        <v>2.65199664099265</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.373587468424773</v>
+        <v>1.486918681281793</v>
       </c>
       <c r="C22">
-        <v>1.240396955276424</v>
+        <v>0.3919625013272139</v>
       </c>
       <c r="D22">
-        <v>0.3247176344351743</v>
+        <v>0.2515034802023308</v>
       </c>
       <c r="E22">
-        <v>0.2858294219365973</v>
+        <v>0.1992154198121625</v>
       </c>
       <c r="F22">
-        <v>1.223784112092247</v>
+        <v>1.211608037269684</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2326984435575064</v>
+        <v>0.4529092587716335</v>
       </c>
       <c r="J22">
-        <v>0.3246879943966547</v>
+        <v>0.2094243033141225</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7085384019831338</v>
+        <v>0.9895204448726247</v>
       </c>
       <c r="O22">
-        <v>2.542389249198266</v>
+        <v>2.667847928427165</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.211942789659417</v>
+        <v>1.439250657970888</v>
       </c>
       <c r="C23">
-        <v>1.194660615808289</v>
+        <v>0.378480905239087</v>
       </c>
       <c r="D23">
-        <v>0.3136992275909023</v>
+        <v>0.248885706132512</v>
       </c>
       <c r="E23">
-        <v>0.275804783454376</v>
+        <v>0.1969846516559102</v>
       </c>
       <c r="F23">
-        <v>1.185452008637441</v>
+        <v>1.206186211408294</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2292171754189987</v>
+        <v>0.4542794134584902</v>
       </c>
       <c r="J23">
-        <v>0.312990506456984</v>
+        <v>0.2069333816606189</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7071136239032825</v>
+        <v>0.9900896537946124</v>
       </c>
       <c r="O23">
-        <v>2.464663645838613</v>
+        <v>2.659237598997009</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.602706346315074</v>
+        <v>1.258655867698565</v>
       </c>
       <c r="C24">
-        <v>1.022366742266428</v>
+        <v>0.3273562293415466</v>
       </c>
       <c r="D24">
-        <v>0.2724718889422917</v>
+        <v>0.2391140457333165</v>
       </c>
       <c r="E24">
-        <v>0.2384874030624786</v>
+        <v>0.1886879852870678</v>
       </c>
       <c r="F24">
-        <v>1.045455272775584</v>
+        <v>1.186996716676347</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2181134824961468</v>
+        <v>0.4600790329071422</v>
       </c>
       <c r="J24">
-        <v>0.269620069320041</v>
+        <v>0.1976910134091128</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7040015828757475</v>
+        <v>0.9929692582594782</v>
       </c>
       <c r="O24">
-        <v>2.183325599963382</v>
+        <v>2.629922260868199</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.95033113965917</v>
+        <v>1.063785789667406</v>
       </c>
       <c r="C25">
-        <v>0.8379933154172363</v>
+        <v>0.2720846572618711</v>
       </c>
       <c r="D25">
-        <v>0.2289147336982182</v>
+        <v>0.2288821935892713</v>
       </c>
       <c r="E25">
-        <v>0.1994100736928104</v>
+        <v>0.180064593882399</v>
       </c>
       <c r="F25">
-        <v>0.9040153232728585</v>
+        <v>1.169163066708407</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2100584193493447</v>
+        <v>0.4676319549144559</v>
       </c>
       <c r="J25">
-        <v>0.2245203109848859</v>
+        <v>0.1881303834649088</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7050857103877703</v>
+        <v>0.9976259095982627</v>
       </c>
       <c r="O25">
-        <v>1.90396300649175</v>
+        <v>2.605309621831395</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_27/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9202686041625157</v>
+        <v>2.472591500528551</v>
       </c>
       <c r="C2">
-        <v>0.2312851940432097</v>
+        <v>0.7030242329477687</v>
       </c>
       <c r="D2">
-        <v>0.2216154181053156</v>
+        <v>0.1974744981815775</v>
       </c>
       <c r="E2">
-        <v>0.1739950061645459</v>
+        <v>0.1714492826370275</v>
       </c>
       <c r="F2">
-        <v>1.158484340464028</v>
+        <v>0.8067141962894766</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4743025055241681</v>
+        <v>0.2070196427451023</v>
       </c>
       <c r="J2">
-        <v>0.181440027653359</v>
+        <v>0.1924722299243982</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.002392765118174</v>
+        <v>0.7093006283513148</v>
       </c>
       <c r="O2">
-        <v>2.593177007097211</v>
+        <v>1.715542360153279</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8229987116440611</v>
+        <v>2.149771234905586</v>
       </c>
       <c r="C3">
-        <v>0.2035736324698121</v>
+        <v>0.6118296152640994</v>
       </c>
       <c r="D3">
-        <v>0.2168581183873073</v>
+        <v>0.1764909013983669</v>
       </c>
       <c r="E3">
-        <v>0.1700559920835012</v>
+        <v>0.1529164622772612</v>
       </c>
       <c r="F3">
-        <v>1.152771200007365</v>
+        <v>0.7444107525820058</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4795121132207818</v>
+        <v>0.2065455600841837</v>
       </c>
       <c r="J3">
-        <v>0.1771225843947235</v>
+        <v>0.1713459011992953</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.006460705725516</v>
+        <v>0.7141055539564221</v>
       </c>
       <c r="O3">
-        <v>2.588672475194073</v>
+        <v>1.597057263378218</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7632777456278461</v>
+        <v>1.951826409221724</v>
       </c>
       <c r="C4">
-        <v>0.1865297834987416</v>
+        <v>0.5559082506059951</v>
       </c>
       <c r="D4">
-        <v>0.2140201439043494</v>
+        <v>0.1637456157404529</v>
       </c>
       <c r="E4">
-        <v>0.1677234901445317</v>
+        <v>0.1417155222864075</v>
       </c>
       <c r="F4">
-        <v>1.150013388387926</v>
+        <v>0.7077597634083546</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4830496188176774</v>
+        <v>0.2069694517180132</v>
       </c>
       <c r="J4">
-        <v>0.1745782619092537</v>
+        <v>0.1586274743204683</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.009372486929486</v>
+        <v>0.7179611671303974</v>
       </c>
       <c r="O4">
-        <v>2.587734933961968</v>
+        <v>1.528373191054584</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7389432360144497</v>
+        <v>1.871203401442671</v>
       </c>
       <c r="C5">
-        <v>0.1795773785316896</v>
+        <v>0.533129705930719</v>
       </c>
       <c r="D5">
-        <v>0.21288461906002</v>
+        <v>0.1585838551215346</v>
       </c>
       <c r="E5">
-        <v>0.1667946530482958</v>
+        <v>0.1371921620600638</v>
       </c>
       <c r="F5">
-        <v>1.149078023406766</v>
+        <v>0.6932008870713915</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4845762209298066</v>
+        <v>0.2073125610099069</v>
       </c>
       <c r="J5">
-        <v>0.1735682267089231</v>
+        <v>0.1535028838738484</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.010663349112754</v>
+        <v>0.7197522390553033</v>
       </c>
       <c r="O5">
-        <v>2.587811949816654</v>
+        <v>1.50134006165095</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7349026898979218</v>
+        <v>1.85781775910678</v>
       </c>
       <c r="C6">
-        <v>0.1784225307842746</v>
+        <v>0.5293477078005822</v>
       </c>
       <c r="D6">
-        <v>0.2126973355311748</v>
+        <v>0.1577286043213348</v>
       </c>
       <c r="E6">
-        <v>0.1666417305556678</v>
+        <v>0.1364434398828998</v>
       </c>
       <c r="F6">
-        <v>1.148934085324989</v>
+        <v>0.6908053990981884</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4848348438394758</v>
+        <v>0.2073795574685207</v>
       </c>
       <c r="J6">
-        <v>0.1734021293204577</v>
+        <v>0.152655316642516</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.010883999665111</v>
+        <v>0.7200627060173517</v>
       </c>
       <c r="O6">
-        <v>2.58785244577922</v>
+        <v>1.496907109624317</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7629495507722766</v>
+        <v>1.950738966214942</v>
       </c>
       <c r="C7">
-        <v>0.1864360483944836</v>
+        <v>0.5556010218990366</v>
       </c>
       <c r="D7">
-        <v>0.2140047447755933</v>
+        <v>0.1636758763103927</v>
       </c>
       <c r="E7">
-        <v>0.1677108757105437</v>
+        <v>0.1416543569662672</v>
       </c>
       <c r="F7">
-        <v>1.150000010836642</v>
+        <v>0.7075619261217128</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.483069862985154</v>
+        <v>0.2069734012924052</v>
       </c>
       <c r="J7">
-        <v>0.1745645317340276</v>
+        <v>0.1585581332878405</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.009389473461688</v>
+        <v>0.7179844418383539</v>
       </c>
       <c r="O7">
-        <v>2.587734114741636</v>
+        <v>1.528004826351662</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8867301493752393</v>
+        <v>2.3612109680559</v>
       </c>
       <c r="C8">
-        <v>0.2217364363938543</v>
+        <v>0.6715600469900664</v>
       </c>
       <c r="D8">
-        <v>0.2199579240351284</v>
+        <v>0.1902087973259796</v>
       </c>
       <c r="E8">
-        <v>0.1726189891446879</v>
+        <v>0.1650198557207716</v>
       </c>
       <c r="F8">
-        <v>1.156358676151896</v>
+        <v>0.7848827201472091</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4760283728502905</v>
+        <v>0.2067019689245555</v>
       </c>
       <c r="J8">
-        <v>0.1799292395573246</v>
+        <v>0.1851319635854054</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.003709555393627</v>
+        <v>0.7107646344912979</v>
       </c>
       <c r="O8">
-        <v>2.591243982878581</v>
+        <v>1.673803712319881</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.129435424059977</v>
+        <v>3.169585284863331</v>
       </c>
       <c r="C9">
-        <v>0.290719381029561</v>
+        <v>0.8999476163919269</v>
       </c>
       <c r="D9">
-        <v>0.2322874718304462</v>
+        <v>0.2434792539969379</v>
       </c>
       <c r="E9">
-        <v>0.1829259138570833</v>
+        <v>0.212434611270119</v>
       </c>
       <c r="F9">
-        <v>1.174788671659812</v>
+        <v>0.950508715573676</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4649149978424632</v>
+        <v>0.2122918676744128</v>
       </c>
       <c r="J9">
-        <v>0.1912965171574541</v>
+        <v>0.2395139809641478</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.995849766821209</v>
+        <v>0.7041641081654149</v>
       </c>
       <c r="O9">
-        <v>2.61266752243327</v>
+        <v>1.995163757912792</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.307680207747183</v>
+        <v>3.767615008124608</v>
       </c>
       <c r="C10">
-        <v>0.3412427635976201</v>
+        <v>1.068991080617536</v>
       </c>
       <c r="D10">
-        <v>0.2417421073335788</v>
+        <v>0.2835823623188105</v>
       </c>
       <c r="E10">
-        <v>0.1909142272174051</v>
+        <v>0.2485137298703606</v>
       </c>
       <c r="F10">
-        <v>1.191979143481902</v>
+        <v>1.082631038887683</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4584025110627081</v>
+        <v>0.2207945747615909</v>
       </c>
       <c r="J10">
-        <v>0.2001673305942404</v>
+        <v>0.2812449866834186</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.992065850044213</v>
+        <v>0.704476643946677</v>
       </c>
       <c r="O10">
-        <v>2.6373257986711</v>
+        <v>2.25761698363749</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.388742744772173</v>
+        <v>4.041060671006392</v>
       </c>
       <c r="C11">
-        <v>0.3641906446387679</v>
+        <v>1.146321552324821</v>
       </c>
       <c r="D11">
-        <v>0.2461286260977857</v>
+        <v>0.3020864652175561</v>
       </c>
       <c r="E11">
-        <v>0.1946386679148375</v>
+        <v>0.2652624082307184</v>
       </c>
       <c r="F11">
-        <v>1.200595791623698</v>
+        <v>1.145460105431141</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4558007153940231</v>
+        <v>0.2257757961358138</v>
       </c>
       <c r="J11">
-        <v>0.2043163326975872</v>
+        <v>0.3007098659213199</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9907751797901483</v>
+        <v>0.7058725412174311</v>
       </c>
       <c r="O11">
-        <v>2.650492070846241</v>
+        <v>2.383873914777269</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.41943461133161</v>
+        <v>4.144852201873448</v>
       </c>
       <c r="C12">
-        <v>0.3728750208106817</v>
+        <v>1.175680751531729</v>
       </c>
       <c r="D12">
-        <v>0.2478019101156121</v>
+        <v>0.3091355117833388</v>
       </c>
       <c r="E12">
-        <v>0.1960620151282626</v>
+        <v>0.2716588823668147</v>
       </c>
       <c r="F12">
-        <v>1.203973474671187</v>
+        <v>1.169684983661426</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4548675317125515</v>
+        <v>0.2278364716176853</v>
       </c>
       <c r="J12">
-        <v>0.2059038214717788</v>
+        <v>0.3081584240452599</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9903482356932187</v>
+        <v>0.7065933963099553</v>
       </c>
       <c r="O12">
-        <v>2.655758922750948</v>
+        <v>2.432774138229206</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.412824805813159</v>
+        <v>4.122487290112929</v>
       </c>
       <c r="C13">
-        <v>0.3710049353031195</v>
+        <v>1.169354118039109</v>
       </c>
       <c r="D13">
-        <v>0.2474409972297167</v>
+        <v>0.3076154339483992</v>
       </c>
       <c r="E13">
-        <v>0.1957548949851073</v>
+        <v>0.2702787834726834</v>
       </c>
       <c r="F13">
-        <v>1.203240923791597</v>
+        <v>1.164447784962519</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4550661912411407</v>
+        <v>0.2273846726352566</v>
       </c>
       <c r="J13">
-        <v>0.205561199913447</v>
+        <v>0.3065506495473187</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9904374388545847</v>
+        <v>0.7064293964826334</v>
       </c>
       <c r="O13">
-        <v>2.654612098670412</v>
+        <v>2.422192432332054</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.391267887626498</v>
+        <v>4.049594524750205</v>
       </c>
       <c r="C14">
-        <v>0.3649052257149492</v>
+        <v>1.148735348460377</v>
       </c>
       <c r="D14">
-        <v>0.2462660441470632</v>
+        <v>0.302665527360773</v>
       </c>
       <c r="E14">
-        <v>0.1947555075551008</v>
+        <v>0.2657875307277919</v>
       </c>
       <c r="F14">
-        <v>1.200871374868484</v>
+        <v>1.147444179645404</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4557228974114302</v>
+        <v>0.2259417482197001</v>
       </c>
       <c r="J14">
-        <v>0.2044466085699383</v>
+        <v>0.301321056716219</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9907388168662123</v>
+        <v>0.7059279215457934</v>
       </c>
       <c r="O14">
-        <v>2.650919740319239</v>
+        <v>2.387874517055536</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.378062985704105</v>
+        <v>4.004978645370045</v>
       </c>
       <c r="C15">
-        <v>0.3611682511832441</v>
+        <v>1.136116060776146</v>
       </c>
       <c r="D15">
-        <v>0.2455479379308798</v>
+        <v>0.2996391660085749</v>
       </c>
       <c r="E15">
-        <v>0.1941450435771799</v>
+        <v>0.2630437353556658</v>
       </c>
       <c r="F15">
-        <v>1.199434906690996</v>
+        <v>1.137086621575705</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4561319340344276</v>
+        <v>0.2250810696875263</v>
       </c>
       <c r="J15">
-        <v>0.2037660190389232</v>
+        <v>0.2981281517677417</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9909314648552652</v>
+        <v>0.7056461617171408</v>
       </c>
       <c r="O15">
-        <v>2.648694691370082</v>
+        <v>2.36699885336472</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.302382002015577</v>
+        <v>3.749776386415931</v>
       </c>
       <c r="C16">
-        <v>0.339742318766298</v>
+        <v>1.063947187297316</v>
       </c>
       <c r="D16">
-        <v>0.2414571512298949</v>
+        <v>0.2823786970009792</v>
       </c>
       <c r="E16">
-        <v>0.1906726447961233</v>
+        <v>0.2474264114886111</v>
       </c>
       <c r="F16">
-        <v>1.191432071721692</v>
+        <v>1.078583287880889</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4585798196456921</v>
+        <v>0.2204926411782147</v>
       </c>
       <c r="J16">
-        <v>0.1998984710505312</v>
+        <v>0.27998330000419</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9921588536034704</v>
+        <v>0.7044116510321743</v>
       </c>
       <c r="O16">
-        <v>2.636504640428456</v>
+        <v>2.249512506158965</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.255947413905631</v>
+        <v>3.593605437780866</v>
       </c>
       <c r="C17">
-        <v>0.3265888439129583</v>
+        <v>1.019793899805961</v>
       </c>
       <c r="D17">
-        <v>0.2389694293160574</v>
+        <v>0.2718598382897994</v>
       </c>
       <c r="E17">
-        <v>0.1885656000784977</v>
+        <v>0.2379357452167028</v>
       </c>
       <c r="F17">
-        <v>1.186726761655919</v>
+        <v>1.043419675598543</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4601740488354622</v>
+        <v>0.2179727771379802</v>
       </c>
       <c r="J17">
-        <v>0.197554966648795</v>
+        <v>0.2689810650406059</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9930220282897011</v>
+        <v>0.7039836795927954</v>
       </c>
       <c r="O17">
-        <v>2.629526214108324</v>
+        <v>2.179267138210662</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.229237500509328</v>
+        <v>3.503908966906408</v>
       </c>
       <c r="C18">
-        <v>0.3190199987077449</v>
+        <v>0.9944378421939746</v>
       </c>
       <c r="D18">
-        <v>0.2375466164430833</v>
+        <v>0.2658339512064458</v>
       </c>
       <c r="E18">
-        <v>0.1873622055931037</v>
+        <v>0.2325082285866813</v>
       </c>
       <c r="F18">
-        <v>1.184095361538581</v>
+        <v>1.023448447201929</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4611249535400326</v>
+        <v>0.2166272895246344</v>
       </c>
       <c r="J18">
-        <v>0.196217739038417</v>
+        <v>0.2626976233812428</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9935590455538232</v>
+        <v>0.7038547613806969</v>
       </c>
       <c r="O18">
-        <v>2.625695818934162</v>
+        <v>2.139503515999507</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.220193694057514</v>
+        <v>3.473560191887827</v>
       </c>
       <c r="C19">
-        <v>0.3164567604052309</v>
+        <v>0.9858591441385727</v>
       </c>
       <c r="D19">
-        <v>0.237066263592439</v>
+        <v>0.2637977310011053</v>
       </c>
       <c r="E19">
-        <v>0.1869562215739222</v>
+        <v>0.2306757654906022</v>
       </c>
       <c r="F19">
-        <v>1.183217284921966</v>
+        <v>1.01672895417218</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4614527382894202</v>
+        <v>0.2161891519221726</v>
       </c>
       <c r="J19">
-        <v>0.1957668130865216</v>
+        <v>0.2605775983875844</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9937478373308863</v>
+        <v>0.703830896926263</v>
       </c>
       <c r="O19">
-        <v>2.624430389819338</v>
+        <v>2.126147112342295</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.260890670251626</v>
+        <v>3.610216462362757</v>
       </c>
       <c r="C20">
-        <v>0.327989399615177</v>
+        <v>1.024489883464952</v>
       </c>
       <c r="D20">
-        <v>0.2392334182006834</v>
+        <v>0.2729770447701725</v>
       </c>
       <c r="E20">
-        <v>0.1887890168460089</v>
+        <v>0.2389427667546258</v>
       </c>
       <c r="F20">
-        <v>1.187219889452763</v>
+        <v>1.047136333061275</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4600008257882635</v>
+        <v>0.2182301704279048</v>
       </c>
       <c r="J20">
-        <v>0.1978033297982051</v>
+        <v>0.2701475810611385</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9929259468281089</v>
+        <v>0.7040170200125146</v>
       </c>
       <c r="O20">
-        <v>2.630250091395396</v>
+        <v>2.186677960565703</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.397599818925983</v>
+        <v>4.070997929609632</v>
       </c>
       <c r="C21">
-        <v>0.3666970103288349</v>
+        <v>1.15478940724006</v>
       </c>
       <c r="D21">
-        <v>0.2466108259054778</v>
+        <v>0.3041182596350893</v>
       </c>
       <c r="E21">
-        <v>0.195048699801653</v>
+        <v>0.2671052035283239</v>
       </c>
       <c r="F21">
-        <v>1.201564253133029</v>
+        <v>1.152426460792682</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4555285925504897</v>
+        <v>0.2263607176878359</v>
       </c>
       <c r="J21">
-        <v>0.2047735471842458</v>
+        <v>0.3028549374321301</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9906486184257659</v>
+        <v>0.7060698992714123</v>
       </c>
       <c r="O21">
-        <v>2.65199664099265</v>
+        <v>2.397924098455661</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.486918681281793</v>
+        <v>4.37358746842466</v>
       </c>
       <c r="C22">
-        <v>0.3919625013272139</v>
+        <v>1.240396955276537</v>
       </c>
       <c r="D22">
-        <v>0.2515034802023308</v>
+        <v>0.3247176344353875</v>
       </c>
       <c r="E22">
-        <v>0.1992154198121625</v>
+        <v>0.2858294219366186</v>
       </c>
       <c r="F22">
-        <v>1.211608037269684</v>
+        <v>1.223784112092247</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4529092587716335</v>
+        <v>0.2326984435574921</v>
       </c>
       <c r="J22">
-        <v>0.2094243033141225</v>
+        <v>0.3246879943966405</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9895204448726247</v>
+        <v>0.7085384019831196</v>
       </c>
       <c r="O22">
-        <v>2.667847928427165</v>
+        <v>2.542389249198237</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.439250657970888</v>
+        <v>4.211942789659304</v>
       </c>
       <c r="C23">
-        <v>0.378480905239087</v>
+        <v>1.194660615808061</v>
       </c>
       <c r="D23">
-        <v>0.248885706132512</v>
+        <v>0.3136992275909734</v>
       </c>
       <c r="E23">
-        <v>0.1969846516559102</v>
+        <v>0.2758047834543902</v>
       </c>
       <c r="F23">
-        <v>1.206186211408294</v>
+        <v>1.185452008637455</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4542794134584902</v>
+        <v>0.2292171754190093</v>
       </c>
       <c r="J23">
-        <v>0.2069333816606189</v>
+        <v>0.3129905064570266</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9900896537946124</v>
+        <v>0.7071136239033251</v>
       </c>
       <c r="O23">
-        <v>2.659237598997009</v>
+        <v>2.464663645838669</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.258655867698565</v>
+        <v>3.602706346315188</v>
       </c>
       <c r="C24">
-        <v>0.3273562293415466</v>
+        <v>1.022366742266769</v>
       </c>
       <c r="D24">
-        <v>0.2391140457333165</v>
+        <v>0.2724718889424622</v>
       </c>
       <c r="E24">
-        <v>0.1886879852870678</v>
+        <v>0.2384874030624644</v>
       </c>
       <c r="F24">
-        <v>1.186996716676347</v>
+        <v>1.045455272775598</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4600790329071422</v>
+        <v>0.2181134824961504</v>
       </c>
       <c r="J24">
-        <v>0.1976910134091128</v>
+        <v>0.2696200693199984</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9929692582594782</v>
+        <v>0.7040015828758044</v>
       </c>
       <c r="O24">
-        <v>2.629922260868199</v>
+        <v>2.183325599963439</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.063785789667406</v>
+        <v>2.95033113965917</v>
       </c>
       <c r="C25">
-        <v>0.2720846572618711</v>
+        <v>0.8379933154176058</v>
       </c>
       <c r="D25">
-        <v>0.2288821935892713</v>
+        <v>0.2289147336980903</v>
       </c>
       <c r="E25">
-        <v>0.180064593882399</v>
+        <v>0.199410073692782</v>
       </c>
       <c r="F25">
-        <v>1.169163066708407</v>
+        <v>0.9040153232728585</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4676319549144559</v>
+        <v>0.2100584193493589</v>
       </c>
       <c r="J25">
-        <v>0.1881303834649088</v>
+        <v>0.2245203109848148</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9976259095982627</v>
+        <v>0.7050857103877632</v>
       </c>
       <c r="O25">
-        <v>2.605309621831395</v>
+        <v>1.90396300649175</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_27/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.472591500528551</v>
+        <v>0.7580546506884502</v>
       </c>
       <c r="C2">
-        <v>0.7030242329477687</v>
+        <v>0.1639561549822588</v>
       </c>
       <c r="D2">
-        <v>0.1974744981815775</v>
+        <v>0.06940795249756349</v>
       </c>
       <c r="E2">
-        <v>0.1714492826370275</v>
+        <v>0.3691048917514124</v>
       </c>
       <c r="F2">
-        <v>0.8067141962894766</v>
+        <v>0.5052509105359704</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0001083265148684731</v>
       </c>
       <c r="I2">
-        <v>0.2070196427451023</v>
+        <v>0.0004588457135570323</v>
       </c>
       <c r="J2">
-        <v>0.1924722299243982</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3133856020242121</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8624078632878422</v>
       </c>
       <c r="N2">
-        <v>0.7093006283513148</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.715542360153279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.5855756815702122</v>
+      </c>
+      <c r="P2">
+        <v>0.8122866005757824</v>
+      </c>
+      <c r="Q2">
+        <v>1.511420149149075</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.149771234905586</v>
+        <v>0.6601560026323625</v>
       </c>
       <c r="C3">
-        <v>0.6118296152640994</v>
+        <v>0.1456452531639201</v>
       </c>
       <c r="D3">
-        <v>0.1764909013983669</v>
+        <v>0.06238187776664006</v>
       </c>
       <c r="E3">
-        <v>0.1529164622772612</v>
+        <v>0.3248467666566484</v>
       </c>
       <c r="F3">
-        <v>0.7444107525820058</v>
+        <v>0.4772327279313089</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4.573043716593617E-06</v>
       </c>
       <c r="I3">
-        <v>0.2065455600841837</v>
+        <v>0.0004672457091485782</v>
       </c>
       <c r="J3">
-        <v>0.1713459011992953</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3104719489439915</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7528813020385314</v>
       </c>
       <c r="N3">
-        <v>0.7141055539564221</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.597057263378218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.5102591287219411</v>
+      </c>
+      <c r="P3">
+        <v>0.8397376992700558</v>
+      </c>
+      <c r="Q3">
+        <v>1.460097749788844</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.951826409221724</v>
+        <v>0.5997084526745198</v>
       </c>
       <c r="C4">
-        <v>0.5559082506059951</v>
+        <v>0.1345265324864897</v>
       </c>
       <c r="D4">
-        <v>0.1637456157404529</v>
+        <v>0.05806410065135026</v>
       </c>
       <c r="E4">
-        <v>0.1417155222864075</v>
+        <v>0.2976519434539213</v>
       </c>
       <c r="F4">
-        <v>0.7077597634083546</v>
+        <v>0.4604250405860242</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0001026362125668978</v>
       </c>
       <c r="I4">
-        <v>0.2069694517180132</v>
+        <v>0.0006261370292239832</v>
       </c>
       <c r="J4">
-        <v>0.1586274743204683</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3088497996984465</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6855331984451993</v>
       </c>
       <c r="N4">
-        <v>0.7179611671303974</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.528373191054584</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4640122925842292</v>
+      </c>
+      <c r="P4">
+        <v>0.857104422458655</v>
+      </c>
+      <c r="Q4">
+        <v>1.429699942375763</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.871203401442671</v>
+        <v>0.5743733581377342</v>
       </c>
       <c r="C5">
-        <v>0.533129705930719</v>
+        <v>0.1303422843958799</v>
       </c>
       <c r="D5">
-        <v>0.1585838551215346</v>
+        <v>0.05635315588185819</v>
       </c>
       <c r="E5">
-        <v>0.1371921620600638</v>
+        <v>0.2865558267518722</v>
       </c>
       <c r="F5">
-        <v>0.6932008870713915</v>
+        <v>0.4532784452248961</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0001814811355729251</v>
       </c>
       <c r="I5">
-        <v>0.2073125610099069</v>
+        <v>0.0007957481647880016</v>
       </c>
       <c r="J5">
-        <v>0.1535028838738484</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3079091507171725</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6580290683534855</v>
       </c>
       <c r="N5">
-        <v>0.7197522390553033</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.50134006165095</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4451541672270736</v>
+      </c>
+      <c r="P5">
+        <v>0.8641898555939519</v>
+      </c>
+      <c r="Q5">
+        <v>1.416306847105076</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.85781775910678</v>
+        <v>0.5694071107673722</v>
       </c>
       <c r="C6">
-        <v>0.5293477078005822</v>
+        <v>0.1300402185280518</v>
       </c>
       <c r="D6">
-        <v>0.1577286043213348</v>
+        <v>0.05613024333549532</v>
       </c>
       <c r="E6">
-        <v>0.1364434398828998</v>
+        <v>0.2847056123927914</v>
       </c>
       <c r="F6">
-        <v>0.6908053990981884</v>
+        <v>0.4516184874170222</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0001972020891327642</v>
       </c>
       <c r="I6">
-        <v>0.2073795574685207</v>
+        <v>0.0009165972255011923</v>
       </c>
       <c r="J6">
-        <v>0.152655316642516</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3073644715595911</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6534237457129564</v>
       </c>
       <c r="N6">
-        <v>0.7200627060173517</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.496907109624317</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4420131743959814</v>
+      </c>
+      <c r="P6">
+        <v>0.8652321807840136</v>
+      </c>
+      <c r="Q6">
+        <v>1.412542954041086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.950738966214942</v>
+        <v>0.5972998938059959</v>
       </c>
       <c r="C7">
-        <v>0.5556010218990366</v>
+        <v>0.1355402146866709</v>
       </c>
       <c r="D7">
-        <v>0.1636758763103927</v>
+        <v>0.05820903477675188</v>
       </c>
       <c r="E7">
-        <v>0.1416543569662672</v>
+        <v>0.2974830219640126</v>
       </c>
       <c r="F7">
-        <v>0.7075619261217128</v>
+        <v>0.4590201182026163</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0001042133664008738</v>
       </c>
       <c r="I7">
-        <v>0.2069734012924052</v>
+        <v>0.0008601641756049716</v>
       </c>
       <c r="J7">
-        <v>0.1585581332878405</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3077698792663597</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6850623747300517</v>
       </c>
       <c r="N7">
-        <v>0.7179844418383539</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.528004826351662</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.4637325393771334</v>
+      </c>
+      <c r="P7">
+        <v>0.8568237214747189</v>
+      </c>
+      <c r="Q7">
+        <v>1.425270144842031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.3612109680559</v>
+        <v>0.7216041816922427</v>
       </c>
       <c r="C8">
-        <v>0.6715600469900664</v>
+        <v>0.1590441779383838</v>
       </c>
       <c r="D8">
-        <v>0.1902087973259796</v>
+        <v>0.06721101148014696</v>
       </c>
       <c r="E8">
-        <v>0.1650198557207716</v>
+        <v>0.3538221075990862</v>
       </c>
       <c r="F8">
-        <v>0.7848827201472091</v>
+        <v>0.4937731875374638</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.721552938951156E-05</v>
       </c>
       <c r="I8">
-        <v>0.2067019689245555</v>
+        <v>0.0007062982955083896</v>
       </c>
       <c r="J8">
-        <v>0.1851319635854054</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3109384366338155</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8245250139528366</v>
       </c>
       <c r="N8">
-        <v>0.7107646344912979</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.673803712319881</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.5595695126989852</v>
+      </c>
+      <c r="P8">
+        <v>0.8211979215840703</v>
+      </c>
+      <c r="Q8">
+        <v>1.487872433800263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.169585284863331</v>
+        <v>0.9665025613719536</v>
       </c>
       <c r="C9">
-        <v>0.8999476163919269</v>
+        <v>0.2043324845420642</v>
       </c>
       <c r="D9">
-        <v>0.2434792539969379</v>
+        <v>0.08455128776898135</v>
       </c>
       <c r="E9">
-        <v>0.212434611270119</v>
+        <v>0.4643255150184302</v>
       </c>
       <c r="F9">
-        <v>0.950508715573676</v>
+        <v>0.567659832554682</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001287747714694421</v>
       </c>
       <c r="I9">
-        <v>0.2122918676744128</v>
+        <v>0.001360848553495941</v>
       </c>
       <c r="J9">
-        <v>0.2395139809641478</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3204526231639626</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.097656608818653</v>
       </c>
       <c r="N9">
-        <v>0.7041641081654149</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.995163757912792</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.7477373481499541</v>
+      </c>
+      <c r="P9">
+        <v>0.7561263858589343</v>
+      </c>
+      <c r="Q9">
+        <v>1.627714328360554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.767615008124608</v>
+        <v>1.144614040118654</v>
       </c>
       <c r="C10">
-        <v>1.068991080617536</v>
+        <v>0.2381645961409475</v>
       </c>
       <c r="D10">
-        <v>0.2835823623188105</v>
+        <v>0.09833712062201272</v>
       </c>
       <c r="E10">
-        <v>0.2485137298703606</v>
+        <v>0.5125227897698537</v>
       </c>
       <c r="F10">
-        <v>1.082631038887683</v>
+        <v>0.6171108129269314</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.003155578161568862</v>
       </c>
       <c r="I10">
-        <v>0.2207945747615909</v>
+        <v>0.002845774848363902</v>
       </c>
       <c r="J10">
-        <v>0.2812449866834186</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3243429206399426</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.297659184695135</v>
       </c>
       <c r="N10">
-        <v>0.704476643946677</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.25761698363749</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.8549801485755921</v>
+      </c>
+      <c r="P10">
+        <v>0.7101632942645849</v>
+      </c>
+      <c r="Q10">
+        <v>1.713913082267112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.041060671006392</v>
+        <v>1.228293004118029</v>
       </c>
       <c r="C11">
-        <v>1.146321552324821</v>
+        <v>0.247813886397509</v>
       </c>
       <c r="D11">
-        <v>0.3020864652175561</v>
+        <v>0.1134361856542085</v>
       </c>
       <c r="E11">
-        <v>0.2652624082307184</v>
+        <v>0.2887180445068793</v>
       </c>
       <c r="F11">
-        <v>1.145460105431141</v>
+        <v>0.5811485073614122</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02106617393334886</v>
       </c>
       <c r="I11">
-        <v>0.2257757961358138</v>
+        <v>0.003816502620737516</v>
       </c>
       <c r="J11">
-        <v>0.3007098659213199</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.294863433354994</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.382889415195478</v>
       </c>
       <c r="N11">
-        <v>0.7058725412174311</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.383873914777269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6502241614390698</v>
+      </c>
+      <c r="P11">
+        <v>0.6879995183297556</v>
+      </c>
+      <c r="Q11">
+        <v>1.567813306680023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.144852201873448</v>
+        <v>1.265173412517896</v>
       </c>
       <c r="C12">
-        <v>1.175680751531729</v>
+        <v>0.2470311675637618</v>
       </c>
       <c r="D12">
-        <v>0.3091355117833388</v>
+        <v>0.1235466454576084</v>
       </c>
       <c r="E12">
-        <v>0.2716588823668147</v>
+        <v>0.1467952577630136</v>
       </c>
       <c r="F12">
-        <v>1.169684983661426</v>
+        <v>0.542716110976599</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05918024246850706</v>
       </c>
       <c r="I12">
-        <v>0.2278364716176853</v>
+        <v>0.00391099790123306</v>
       </c>
       <c r="J12">
-        <v>0.3081584240452599</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2716692338040296</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.41281143459355</v>
       </c>
       <c r="N12">
-        <v>0.7065933963099553</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.432774138229206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.4803560192640219</v>
+      </c>
+      <c r="P12">
+        <v>0.6854156566468248</v>
+      </c>
+      <c r="Q12">
+        <v>1.436248759068519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.122487290112929</v>
+        <v>1.26454306386816</v>
       </c>
       <c r="C13">
-        <v>1.169354118039109</v>
+        <v>0.2398867869059416</v>
       </c>
       <c r="D13">
-        <v>0.3076154339483992</v>
+        <v>0.1305558617962248</v>
       </c>
       <c r="E13">
-        <v>0.2702787834726834</v>
+        <v>0.05917600819854663</v>
       </c>
       <c r="F13">
-        <v>1.164447784962519</v>
+        <v>0.4980364740241399</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1143850135685796</v>
       </c>
       <c r="I13">
-        <v>0.2273846726352566</v>
+        <v>0.003651418077008195</v>
       </c>
       <c r="J13">
-        <v>0.3065506495473187</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2502259137584524</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.401457805259952</v>
       </c>
       <c r="N13">
-        <v>0.7064293964826334</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.422192432332054</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3282384649859509</v>
+      </c>
+      <c r="P13">
+        <v>0.6963391448286202</v>
+      </c>
+      <c r="Q13">
+        <v>1.301370715825129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.049594524750205</v>
+        <v>1.246444509535763</v>
       </c>
       <c r="C14">
-        <v>1.148735348460377</v>
+        <v>0.2323869270729659</v>
       </c>
       <c r="D14">
-        <v>0.302665527360773</v>
+        <v>0.1341244162841662</v>
       </c>
       <c r="E14">
-        <v>0.2657875307277919</v>
+        <v>0.03001635487890741</v>
       </c>
       <c r="F14">
-        <v>1.147444179645404</v>
+        <v>0.4639048172313451</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1633857230854971</v>
       </c>
       <c r="I14">
-        <v>0.2259417482197001</v>
+        <v>0.003400127170347211</v>
       </c>
       <c r="J14">
-        <v>0.301321056716219</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2359648857024794</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.374825990918566</v>
       </c>
       <c r="N14">
-        <v>0.7059279215457934</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.387874517055536</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2340715515473804</v>
+      </c>
+      <c r="P14">
+        <v>0.7105997862797402</v>
+      </c>
+      <c r="Q14">
+        <v>1.205590485784711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.004978645370045</v>
+        <v>1.233069064062875</v>
       </c>
       <c r="C15">
-        <v>1.136116060776146</v>
+        <v>0.2296447749616419</v>
       </c>
       <c r="D15">
-        <v>0.2996391660085749</v>
+        <v>0.1343276993928697</v>
       </c>
       <c r="E15">
-        <v>0.2630437353556658</v>
+        <v>0.02710972474242945</v>
       </c>
       <c r="F15">
-        <v>1.137086621575705</v>
+        <v>0.4538343107776441</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1757730324839031</v>
       </c>
       <c r="I15">
-        <v>0.2250810696875263</v>
+        <v>0.003373043863654779</v>
       </c>
       <c r="J15">
-        <v>0.2981281517677417</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2324650603901226</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.359486940029257</v>
       </c>
       <c r="N15">
-        <v>0.7056461617171408</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.36699885336472</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2118584973567756</v>
+      </c>
+      <c r="P15">
+        <v>0.7162249842477095</v>
+      </c>
+      <c r="Q15">
+        <v>1.17995575777995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.749776386415931</v>
+        <v>1.154911018087802</v>
       </c>
       <c r="C16">
-        <v>1.063947187297316</v>
+        <v>0.217275389166943</v>
       </c>
       <c r="D16">
-        <v>0.2823786970009792</v>
+        <v>0.1267800866472584</v>
       </c>
       <c r="E16">
-        <v>0.2474264114886111</v>
+        <v>0.02707463151559852</v>
       </c>
       <c r="F16">
-        <v>1.078583287880889</v>
+        <v>0.4411251601305253</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1625227051801801</v>
       </c>
       <c r="I16">
-        <v>0.2204926411782147</v>
+        <v>0.002859638242186158</v>
       </c>
       <c r="J16">
-        <v>0.27998330000419</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2345147870316104</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.275522487756234</v>
       </c>
       <c r="N16">
-        <v>0.7044116510321743</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.249512506158965</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2016854094859895</v>
+      </c>
+      <c r="P16">
+        <v>0.7311161029467179</v>
+      </c>
+      <c r="Q16">
+        <v>1.168454816883482</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.593605437780866</v>
+        <v>1.104628389360045</v>
       </c>
       <c r="C17">
-        <v>1.019793899805961</v>
+        <v>0.2118248183290916</v>
       </c>
       <c r="D17">
-        <v>0.2718598382897994</v>
+        <v>0.1191201031954137</v>
       </c>
       <c r="E17">
-        <v>0.2379357452167028</v>
+        <v>0.03707479436396</v>
       </c>
       <c r="F17">
-        <v>1.043419675598543</v>
+        <v>0.4494379557612405</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1245089439690901</v>
       </c>
       <c r="I17">
-        <v>0.2179727771379802</v>
+        <v>0.002637306754537327</v>
       </c>
       <c r="J17">
-        <v>0.2689810650406059</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2435762650176763</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.225400143982256</v>
       </c>
       <c r="N17">
-        <v>0.7039836795927954</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.179267138210662</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2407689524505159</v>
+      </c>
+      <c r="P17">
+        <v>0.7349944967933197</v>
+      </c>
+      <c r="Q17">
+        <v>1.210099180630806</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.503908966906408</v>
+        <v>1.07451678985143</v>
       </c>
       <c r="C18">
-        <v>0.9944378421939746</v>
+        <v>0.210783394664773</v>
       </c>
       <c r="D18">
-        <v>0.2658339512064458</v>
+        <v>0.1105273071305533</v>
       </c>
       <c r="E18">
-        <v>0.2325082285866813</v>
+        <v>0.08445411625956822</v>
       </c>
       <c r="F18">
-        <v>1.023448447201929</v>
+        <v>0.4780181368249075</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07172350676153627</v>
       </c>
       <c r="I18">
-        <v>0.2166272895246344</v>
+        <v>0.002337084361022868</v>
       </c>
       <c r="J18">
-        <v>0.2626976233812428</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2608866818328259</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.19868120731357</v>
       </c>
       <c r="N18">
-        <v>0.7038547613806969</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.139503515999507</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.339634509027924</v>
+      </c>
+      <c r="P18">
+        <v>0.7323483307230916</v>
+      </c>
+      <c r="Q18">
+        <v>1.30718256736985</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.473560191887827</v>
+        <v>1.058811694397406</v>
       </c>
       <c r="C19">
-        <v>0.9858591441385727</v>
+        <v>0.2155058072672631</v>
       </c>
       <c r="D19">
-        <v>0.2637977310011053</v>
+        <v>0.1024760072236646</v>
       </c>
       <c r="E19">
-        <v>0.2306757654906022</v>
+        <v>0.2002290423443043</v>
       </c>
       <c r="F19">
-        <v>1.01672895417218</v>
+        <v>0.519451520568893</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02689463360501776</v>
       </c>
       <c r="I19">
-        <v>0.2161891519221726</v>
+        <v>0.002508296668592536</v>
       </c>
       <c r="J19">
-        <v>0.2605775983875844</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2828579319810132</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.192551276337582</v>
       </c>
       <c r="N19">
-        <v>0.703830896926263</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.126147112342295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.4997209213218667</v>
+      </c>
+      <c r="P19">
+        <v>0.7291249140915248</v>
+      </c>
+      <c r="Q19">
+        <v>1.439239497221536</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.610216462362757</v>
+        <v>1.091323327229475</v>
       </c>
       <c r="C20">
-        <v>1.024489883464952</v>
+        <v>0.2326336543847134</v>
       </c>
       <c r="D20">
-        <v>0.2729770447701725</v>
+        <v>0.09529896783947578</v>
       </c>
       <c r="E20">
-        <v>0.2389427667546258</v>
+        <v>0.4983976511121639</v>
       </c>
       <c r="F20">
-        <v>1.047136333061275</v>
+        <v>0.5996087022495473</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.002568030393099274</v>
       </c>
       <c r="I20">
-        <v>0.2182301704279048</v>
+        <v>0.003111184770767217</v>
       </c>
       <c r="J20">
-        <v>0.2701475810611385</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3198459239126805</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.244766126883889</v>
       </c>
       <c r="N20">
-        <v>0.7040170200125146</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.186677960565703</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.8254198852467667</v>
+      </c>
+      <c r="P20">
+        <v>0.7212377644894139</v>
+      </c>
+      <c r="Q20">
+        <v>1.676814885680074</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.070997929609632</v>
+        <v>1.227844891824645</v>
       </c>
       <c r="C21">
-        <v>1.15478940724006</v>
+        <v>0.2596083473832635</v>
       </c>
       <c r="D21">
-        <v>0.3041182596350893</v>
+        <v>0.1043433662242066</v>
       </c>
       <c r="E21">
-        <v>0.2671052035283239</v>
+        <v>0.5868636501784223</v>
       </c>
       <c r="F21">
-        <v>1.152426460792682</v>
+        <v>0.6495593176616978</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.004414495321698908</v>
       </c>
       <c r="I21">
-        <v>0.2263607176878359</v>
+        <v>0.004468394284170785</v>
       </c>
       <c r="J21">
-        <v>0.3028549374321301</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3293565374723784</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.399423371230768</v>
       </c>
       <c r="N21">
-        <v>0.7060698992714123</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.397924098455661</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.9564668636930875</v>
+      </c>
+      <c r="P21">
+        <v>0.6884142604983245</v>
+      </c>
+      <c r="Q21">
+        <v>1.7809726398404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.37358746842466</v>
+        <v>1.319979456529524</v>
       </c>
       <c r="C22">
-        <v>1.240396955276537</v>
+        <v>0.275570825415187</v>
       </c>
       <c r="D22">
-        <v>0.3247176344353875</v>
+        <v>0.1105155581179602</v>
       </c>
       <c r="E22">
-        <v>0.2858294219366186</v>
+        <v>0.6279074376235627</v>
       </c>
       <c r="F22">
-        <v>1.223784112092247</v>
+        <v>0.6810987349583684</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.005824287042225929</v>
       </c>
       <c r="I22">
-        <v>0.2326984435574921</v>
+        <v>0.005260309372030036</v>
       </c>
       <c r="J22">
-        <v>0.3246879943966405</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.3353424229060735</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.500446478778855</v>
       </c>
       <c r="N22">
-        <v>0.7085384019831196</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.542389249198237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.026360618391287</v>
+      </c>
+      <c r="P22">
+        <v>0.6674088452055342</v>
+      </c>
+      <c r="Q22">
+        <v>1.845277597559488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.211942789659304</v>
+        <v>1.273350672981024</v>
       </c>
       <c r="C23">
-        <v>1.194660615808061</v>
+        <v>0.2657120001438926</v>
       </c>
       <c r="D23">
-        <v>0.3136992275909734</v>
+        <v>0.1070118180178525</v>
       </c>
       <c r="E23">
-        <v>0.2758047834543902</v>
+        <v>0.6060112425631345</v>
       </c>
       <c r="F23">
-        <v>1.185452008637455</v>
+        <v>0.6657517502335324</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.005054771437391525</v>
       </c>
       <c r="I23">
-        <v>0.2292171754190093</v>
+        <v>0.004542765154622153</v>
       </c>
       <c r="J23">
-        <v>0.3129905064570266</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3333605276144205</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.446645084333255</v>
       </c>
       <c r="N23">
-        <v>0.7071136239033251</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.464663645838669</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.9890746777122743</v>
+      </c>
+      <c r="P23">
+        <v>0.6788283234747419</v>
+      </c>
+      <c r="Q23">
+        <v>1.815770156396411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.602706346315188</v>
+        <v>1.092390986026402</v>
       </c>
       <c r="C24">
-        <v>1.022366742266769</v>
+        <v>0.2308895131689326</v>
       </c>
       <c r="D24">
-        <v>0.2724718889424622</v>
+        <v>0.09409697885030255</v>
       </c>
       <c r="E24">
-        <v>0.2384874030624644</v>
+        <v>0.5232783631885169</v>
       </c>
       <c r="F24">
-        <v>1.045455272775598</v>
+        <v>0.6064025779085682</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.002584558920215363</v>
       </c>
       <c r="I24">
-        <v>0.2181134824961504</v>
+        <v>0.002661218319117253</v>
       </c>
       <c r="J24">
-        <v>0.2696200693199984</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3243845224734443</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.242953032784953</v>
       </c>
       <c r="N24">
-        <v>0.7040015828758044</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.183325599963439</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.8481628868917852</v>
+      </c>
+      <c r="P24">
+        <v>0.7228579713104654</v>
+      </c>
+      <c r="Q24">
+        <v>1.699495237992011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.95033113965917</v>
+        <v>0.8967000039547486</v>
       </c>
       <c r="C25">
-        <v>0.8379933154176058</v>
+        <v>0.1939201519754619</v>
       </c>
       <c r="D25">
-        <v>0.2289147336980903</v>
+        <v>0.08017032104299204</v>
       </c>
       <c r="E25">
-        <v>0.199410073692782</v>
+        <v>0.434377194016804</v>
       </c>
       <c r="F25">
-        <v>0.9040153232728585</v>
+        <v>0.544905771564693</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0007845982273144703</v>
       </c>
       <c r="I25">
-        <v>0.2100584193493589</v>
+        <v>0.001427803745881917</v>
       </c>
       <c r="J25">
-        <v>0.2245203109848148</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3158090691324844</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.023596532113771</v>
       </c>
       <c r="N25">
-        <v>0.7050857103877632</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.90396300649175</v>
+        <v>0.6967324741165939</v>
+      </c>
+      <c r="P25">
+        <v>0.7727400561535785</v>
+      </c>
+      <c r="Q25">
+        <v>1.581128760599825</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_27/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7580546506884502</v>
+        <v>0.7247729274928645</v>
       </c>
       <c r="C2">
-        <v>0.1639561549822588</v>
+        <v>0.1786018070261122</v>
       </c>
       <c r="D2">
-        <v>0.06940795249756349</v>
+        <v>0.07177860531895419</v>
       </c>
       <c r="E2">
-        <v>0.3691048917514124</v>
+        <v>0.3710238617503236</v>
       </c>
       <c r="F2">
-        <v>0.5052509105359704</v>
+        <v>0.4751037680612384</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0001083265148684731</v>
+        <v>0.0001522643777458477</v>
       </c>
       <c r="I2">
-        <v>0.0004588457135570323</v>
+        <v>0.0006542360267198788</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.3133856020242121</v>
+        <v>0.2836654987674869</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.153401651591313</v>
       </c>
       <c r="M2">
-        <v>0.8624078632878422</v>
+        <v>0.06947736168158158</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5855756815702122</v>
+        <v>0.8635928338986503</v>
       </c>
       <c r="P2">
-        <v>0.8122866005757824</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.511420149149075</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5859907989683677</v>
+      </c>
+      <c r="R2">
+        <v>0.7892994783148612</v>
+      </c>
+      <c r="S2">
+        <v>1.407375460376699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6601560026323625</v>
+        <v>0.6350103547374033</v>
       </c>
       <c r="C3">
-        <v>0.1456452531639201</v>
+        <v>0.1554767017959051</v>
       </c>
       <c r="D3">
-        <v>0.06238187776664006</v>
+        <v>0.06399801196926802</v>
       </c>
       <c r="E3">
-        <v>0.3248467666566484</v>
+        <v>0.3269582948154337</v>
       </c>
       <c r="F3">
-        <v>0.4772327279313089</v>
+        <v>0.4510255894747033</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.573043716593617E-06</v>
+        <v>1.193649268316221E-08</v>
       </c>
       <c r="I3">
-        <v>0.0004672457091485782</v>
+        <v>0.0005051578720802752</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.3104719489439915</v>
+        <v>0.2832392628484257</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1575464592173432</v>
       </c>
       <c r="M3">
-        <v>0.7528813020385314</v>
+        <v>0.06631958087766421</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5102591287219411</v>
+        <v>0.7545046268683393</v>
       </c>
       <c r="P3">
-        <v>0.8397376992700558</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.460097749788844</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5107704470346377</v>
+      </c>
+      <c r="R3">
+        <v>0.8152755544720991</v>
+      </c>
+      <c r="S3">
+        <v>1.367987950878145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5997084526745198</v>
+        <v>0.5794161888882741</v>
       </c>
       <c r="C4">
-        <v>0.1345265324864897</v>
+        <v>0.1415045660832277</v>
       </c>
       <c r="D4">
-        <v>0.05806410065135026</v>
+        <v>0.05922959473070222</v>
       </c>
       <c r="E4">
-        <v>0.2976519434539213</v>
+        <v>0.2998770433221907</v>
       </c>
       <c r="F4">
-        <v>0.4604250405860242</v>
+        <v>0.4365463894298287</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0001026362125668978</v>
+        <v>5.903862686773564E-05</v>
       </c>
       <c r="I4">
-        <v>0.0006261370292239832</v>
+        <v>0.0005449854155470391</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.3088497996984465</v>
+        <v>0.2830771179817297</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1601612997400395</v>
       </c>
       <c r="M4">
-        <v>0.6855331984451993</v>
+        <v>0.06489098248891878</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4640122925842292</v>
+        <v>0.6873960370876233</v>
       </c>
       <c r="P4">
-        <v>0.857104422458655</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.429699942375763</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.464572339810907</v>
+      </c>
+      <c r="R4">
+        <v>0.8317585509042478</v>
+      </c>
+      <c r="S4">
+        <v>1.344638640991136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5743733581377342</v>
+        <v>0.5560393630245812</v>
       </c>
       <c r="C5">
-        <v>0.1303422843958799</v>
+        <v>0.1362061116049773</v>
       </c>
       <c r="D5">
-        <v>0.05635315588185819</v>
+        <v>0.05733959562631696</v>
       </c>
       <c r="E5">
-        <v>0.2865558267518722</v>
+        <v>0.2888261989723588</v>
       </c>
       <c r="F5">
-        <v>0.4532784452248961</v>
+        <v>0.4303382616673375</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0001814811355729251</v>
+        <v>0.000119710855722488</v>
       </c>
       <c r="I5">
-        <v>0.0007957481647880016</v>
+        <v>0.000672657231416629</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.3079091507171725</v>
+        <v>0.2827358832259748</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1610906072232403</v>
       </c>
       <c r="M5">
-        <v>0.6580290683534855</v>
+        <v>0.06436374321297222</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4451541672270736</v>
+        <v>0.6599828757153006</v>
       </c>
       <c r="P5">
-        <v>0.8641898555939519</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.416306847105076</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.445731829389004</v>
+      </c>
+      <c r="R5">
+        <v>0.8385203880667795</v>
+      </c>
+      <c r="S5">
+        <v>1.334098179028359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5694071107673722</v>
+        <v>0.5514152252079896</v>
       </c>
       <c r="C6">
-        <v>0.1300402185280518</v>
+        <v>0.1357494274406434</v>
       </c>
       <c r="D6">
-        <v>0.05613024333549532</v>
+        <v>0.05708890856156756</v>
       </c>
       <c r="E6">
-        <v>0.2847056123927914</v>
+        <v>0.2869834299011345</v>
       </c>
       <c r="F6">
-        <v>0.4516184874170222</v>
+        <v>0.4288474152682937</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0001972020891327642</v>
+        <v>0.0001322154105876105</v>
       </c>
       <c r="I6">
-        <v>0.0009165972255011923</v>
+        <v>0.0008023295697485722</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.3073644715595911</v>
+        <v>0.282315704228985</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1610588294292157</v>
       </c>
       <c r="M6">
-        <v>0.6534237457129564</v>
+        <v>0.06419446058499823</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4420131743959814</v>
+        <v>0.6553924440559058</v>
       </c>
       <c r="P6">
-        <v>0.8652321807840136</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.412542954041086</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4425936983475225</v>
+      </c>
+      <c r="R6">
+        <v>0.8395475136884913</v>
+      </c>
+      <c r="S6">
+        <v>1.330864334011252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5972998938059959</v>
+        <v>0.5770887489453855</v>
       </c>
       <c r="C7">
-        <v>0.1355402146866709</v>
+        <v>0.14258610499094</v>
       </c>
       <c r="D7">
-        <v>0.05820903477675188</v>
+        <v>0.05937718969070716</v>
       </c>
       <c r="E7">
-        <v>0.2974830219640126</v>
+        <v>0.2997087490599881</v>
       </c>
       <c r="F7">
-        <v>0.4590201182026163</v>
+        <v>0.4351960223927236</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0001042133664008738</v>
+        <v>6.020762335379182E-05</v>
       </c>
       <c r="I7">
-        <v>0.0008601641756049716</v>
+        <v>0.0008200384163608021</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.3077698792663597</v>
+        <v>0.2820797511022661</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1596785202333741</v>
       </c>
       <c r="M7">
-        <v>0.6850623747300517</v>
+        <v>0.06462623900468856</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4637325393771334</v>
+        <v>0.6869270296068777</v>
       </c>
       <c r="P7">
-        <v>0.8568237214747189</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.425270144842031</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4642930372056142</v>
+      </c>
+      <c r="R7">
+        <v>0.8315830491707548</v>
+      </c>
+      <c r="S7">
+        <v>1.340420774717884</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7216041816922427</v>
+        <v>0.69124087369309</v>
       </c>
       <c r="C8">
-        <v>0.1590441779383838</v>
+        <v>0.17213459323807</v>
       </c>
       <c r="D8">
-        <v>0.06721101148014696</v>
+        <v>0.06932664950553402</v>
       </c>
       <c r="E8">
-        <v>0.3538221075990862</v>
+        <v>0.3558088436651445</v>
       </c>
       <c r="F8">
-        <v>0.4937731875374638</v>
+        <v>0.4650669184252436</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3.721552938951156E-05</v>
+        <v>6.627548713877829E-05</v>
       </c>
       <c r="I8">
-        <v>0.0007062982955083896</v>
+        <v>0.0009046640737206957</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.3109384366338155</v>
+        <v>0.2822029208759105</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1542271007911111</v>
       </c>
       <c r="M8">
-        <v>0.8245250139528366</v>
+        <v>0.06789050086271509</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5595695126989852</v>
+        <v>0.8258688443924314</v>
       </c>
       <c r="P8">
-        <v>0.8211979215840703</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.487872433800263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5600205106044314</v>
+      </c>
+      <c r="R8">
+        <v>0.7978640889004973</v>
+      </c>
+      <c r="S8">
+        <v>1.388263940777719</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9665025613719536</v>
+        <v>0.9149477838396365</v>
       </c>
       <c r="C9">
-        <v>0.2043324845420642</v>
+        <v>0.2299444954974064</v>
       </c>
       <c r="D9">
-        <v>0.08455128776898135</v>
+        <v>0.0886157485403416</v>
       </c>
       <c r="E9">
-        <v>0.4643255150184302</v>
+        <v>0.4657975638775937</v>
       </c>
       <c r="F9">
-        <v>0.567659832554682</v>
+        <v>0.5285459115756979</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.001287747714694421</v>
+        <v>0.001381142886287767</v>
       </c>
       <c r="I9">
-        <v>0.001360848553495941</v>
+        <v>0.001767253454730167</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.3204526231639626</v>
+        <v>0.2850398930999134</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1448706915209996</v>
       </c>
       <c r="M9">
-        <v>1.097656608818653</v>
+        <v>0.07891917872233023</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7477373481499541</v>
+        <v>1.097710311952738</v>
       </c>
       <c r="P9">
-        <v>0.7561263858589343</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.627714328360554</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.7478767015411449</v>
+      </c>
+      <c r="R9">
+        <v>0.736474111706622</v>
+      </c>
+      <c r="S9">
+        <v>1.496505859335116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.144614040118654</v>
+        <v>1.077427505371361</v>
       </c>
       <c r="C10">
-        <v>0.2381645961409475</v>
+        <v>0.2731137627303184</v>
       </c>
       <c r="D10">
-        <v>0.09833712062201272</v>
+        <v>0.1038841348336916</v>
       </c>
       <c r="E10">
-        <v>0.5125227897698537</v>
+        <v>0.5135642783398282</v>
       </c>
       <c r="F10">
-        <v>0.6171108129269314</v>
+        <v>0.570581794043882</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.003155578161568862</v>
+        <v>0.003238161944902451</v>
       </c>
       <c r="I10">
-        <v>0.002845774848363902</v>
+        <v>0.003292768664264756</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.3243429206399426</v>
+        <v>0.2843939607111459</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.137167154596014</v>
       </c>
       <c r="M10">
-        <v>1.297659184695135</v>
+        <v>0.08819557431850811</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8549801485755921</v>
+        <v>1.296598039053521</v>
       </c>
       <c r="P10">
-        <v>0.7101632942645849</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.713913082267112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.854820128064695</v>
+      </c>
+      <c r="R10">
+        <v>0.6942549782627614</v>
+      </c>
+      <c r="S10">
+        <v>1.560617138766588</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.228293004118029</v>
+        <v>1.159856710676195</v>
       </c>
       <c r="C11">
-        <v>0.247813886397509</v>
+        <v>0.2830454363071055</v>
       </c>
       <c r="D11">
-        <v>0.1134361856542085</v>
+        <v>0.119504886709791</v>
       </c>
       <c r="E11">
-        <v>0.2887180445068793</v>
+        <v>0.2894726649660555</v>
       </c>
       <c r="F11">
-        <v>0.5811485073614122</v>
+        <v>0.5372297326822277</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02106617393334886</v>
+        <v>0.02112609251308939</v>
       </c>
       <c r="I11">
-        <v>0.003816502620737516</v>
+        <v>0.004349393292844894</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.294863433354994</v>
+        <v>0.2586739732376167</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1250928165020913</v>
       </c>
       <c r="M11">
-        <v>1.382889415195478</v>
+        <v>0.08216296810114798</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6502241614390698</v>
+        <v>1.381632498223468</v>
       </c>
       <c r="P11">
-        <v>0.6879995183297556</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.567813306680023</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6500089610937465</v>
+      </c>
+      <c r="R11">
+        <v>0.6811132538111941</v>
+      </c>
+      <c r="S11">
+        <v>1.426106214741992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.265173412517896</v>
+        <v>1.199101989133027</v>
       </c>
       <c r="C12">
-        <v>0.2470311675637618</v>
+        <v>0.2802646098442523</v>
       </c>
       <c r="D12">
-        <v>0.1235466454576084</v>
+        <v>0.1296815306343007</v>
       </c>
       <c r="E12">
-        <v>0.1467952577630136</v>
+        <v>0.1474075153686805</v>
       </c>
       <c r="F12">
-        <v>0.542716110976599</v>
+        <v>0.5024306817486348</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05918024246850706</v>
+        <v>0.05923139359541807</v>
       </c>
       <c r="I12">
-        <v>0.00391099790123306</v>
+        <v>0.004440082276595092</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.2716692338040296</v>
+        <v>0.2393223723186502</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1175625937594038</v>
       </c>
       <c r="M12">
-        <v>1.41281143459355</v>
+        <v>0.07562001133663188</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4803560192640219</v>
+        <v>1.411634694864858</v>
       </c>
       <c r="P12">
-        <v>0.6854156566468248</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.436248759068519</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4801616540504128</v>
+      </c>
+      <c r="R12">
+        <v>0.6845409360313184</v>
+      </c>
+      <c r="S12">
+        <v>1.308261231261469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.26454306386816</v>
+        <v>1.203917261601021</v>
       </c>
       <c r="C13">
-        <v>0.2398867869059416</v>
+        <v>0.2694634107194958</v>
       </c>
       <c r="D13">
-        <v>0.1305558617962248</v>
+        <v>0.1364088563706076</v>
       </c>
       <c r="E13">
-        <v>0.05917600819854663</v>
+        <v>0.05972306924968507</v>
       </c>
       <c r="F13">
-        <v>0.4980364740241399</v>
+        <v>0.462418723437068</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1143850135685796</v>
+        <v>0.1144335940738301</v>
       </c>
       <c r="I13">
-        <v>0.003651418077008195</v>
+        <v>0.004184928984815706</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.2502259137584524</v>
+        <v>0.222102893432325</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1120902867144427</v>
       </c>
       <c r="M13">
-        <v>1.401457805259952</v>
+        <v>0.06790304979307749</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3282384649859509</v>
+        <v>1.400587986712623</v>
       </c>
       <c r="P13">
-        <v>0.6963391448286202</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.301370715825129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3280950840534942</v>
+      </c>
+      <c r="R13">
+        <v>0.6995551249194847</v>
+      </c>
+      <c r="S13">
+        <v>1.189662527527432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.246444509535763</v>
+        <v>1.191033079465939</v>
       </c>
       <c r="C14">
-        <v>0.2323869270729659</v>
+        <v>0.2587232513862858</v>
       </c>
       <c r="D14">
-        <v>0.1341244162841662</v>
+        <v>0.1396162818169699</v>
       </c>
       <c r="E14">
-        <v>0.03001635487890741</v>
+        <v>0.03054457722110104</v>
       </c>
       <c r="F14">
-        <v>0.4639048172313451</v>
+        <v>0.4319646349538075</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1633857230854971</v>
+        <v>0.163433657357416</v>
       </c>
       <c r="I14">
-        <v>0.003400127170347211</v>
+        <v>0.003952903538847252</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.2359648857024794</v>
+        <v>0.2109159751519734</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.109007031025552</v>
       </c>
       <c r="M14">
-        <v>1.374825990918566</v>
+        <v>0.06208905756335348</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2340715515473804</v>
+        <v>1.374267417718983</v>
       </c>
       <c r="P14">
-        <v>0.7105997862797402</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.205590485784711</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2339645248175337</v>
+      </c>
+      <c r="R14">
+        <v>0.7156749906670754</v>
+      </c>
+      <c r="S14">
+        <v>1.106201279974727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.233069064062875</v>
+        <v>1.17957184208899</v>
       </c>
       <c r="C15">
-        <v>0.2296447749616419</v>
+        <v>0.254892474567626</v>
       </c>
       <c r="D15">
-        <v>0.1343276993928697</v>
+        <v>0.1396648530817686</v>
       </c>
       <c r="E15">
-        <v>0.02710972474242945</v>
+        <v>0.02764612901536245</v>
       </c>
       <c r="F15">
-        <v>0.4538343107776441</v>
+        <v>0.4230187118745974</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1757730324839031</v>
+        <v>0.1758208179800107</v>
       </c>
       <c r="I15">
-        <v>0.003373043863654779</v>
+        <v>0.003953146198061752</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>0.2324650603901226</v>
+        <v>0.2082775997348811</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1084795940942147</v>
       </c>
       <c r="M15">
-        <v>1.359486940029257</v>
+        <v>0.06036580992704899</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2118584973567756</v>
+        <v>1.359051103640667</v>
       </c>
       <c r="P15">
-        <v>0.7162249842477095</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.17995575777995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2117629439118858</v>
+      </c>
+      <c r="R15">
+        <v>0.7214326191845686</v>
+      </c>
+      <c r="S15">
+        <v>1.084170808278657</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.154911018087802</v>
+        <v>1.107103713261949</v>
       </c>
       <c r="C16">
-        <v>0.217275389166943</v>
+        <v>0.23939529907571</v>
       </c>
       <c r="D16">
-        <v>0.1267800866472584</v>
+        <v>0.1315073004192868</v>
       </c>
       <c r="E16">
-        <v>0.02707463151559852</v>
+        <v>0.0277396858268153</v>
       </c>
       <c r="F16">
-        <v>0.4411251601305253</v>
+        <v>0.4123712821045018</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1625227051801801</v>
+        <v>0.1625673167096267</v>
       </c>
       <c r="I16">
-        <v>0.002859638242186158</v>
+        <v>0.003464982688677232</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926776106</v>
       </c>
       <c r="K16">
-        <v>0.2345147870316104</v>
+        <v>0.2112214294640573</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1114457136787887</v>
       </c>
       <c r="M16">
-        <v>1.275522487756234</v>
+        <v>0.05830986504547297</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2016854094859895</v>
+        <v>1.275523089089859</v>
       </c>
       <c r="P16">
-        <v>0.7311161029467179</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.168454816883482</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2016315115427858</v>
+      </c>
+      <c r="R16">
+        <v>0.7333516442553432</v>
+      </c>
+      <c r="S16">
+        <v>1.078077751879093</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.104628389360045</v>
+        <v>1.058382139127445</v>
       </c>
       <c r="C17">
-        <v>0.2118248183290916</v>
+        <v>0.2332610440928988</v>
       </c>
       <c r="D17">
-        <v>0.1191201031954137</v>
+        <v>0.1235841525077035</v>
       </c>
       <c r="E17">
-        <v>0.03707479436396</v>
+        <v>0.03786038771012379</v>
       </c>
       <c r="F17">
-        <v>0.4494379557612405</v>
+        <v>0.4203629577983463</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1245089439690901</v>
+        <v>0.1245511304642974</v>
       </c>
       <c r="I17">
-        <v>0.002637306754537327</v>
+        <v>0.003251158752447303</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234339</v>
       </c>
       <c r="K17">
-        <v>0.2435762650176763</v>
+        <v>0.2194058650129165</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1155961834377486</v>
       </c>
       <c r="M17">
-        <v>1.225400143982256</v>
+        <v>0.05967215670191095</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2407689524505159</v>
+        <v>1.225565040823881</v>
       </c>
       <c r="P17">
-        <v>0.7349944967933197</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.210099180630806</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2407434868629608</v>
+      </c>
+      <c r="R17">
+        <v>0.7341575893146484</v>
+      </c>
+      <c r="S17">
+        <v>1.117564490370015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.07451678985143</v>
+        <v>1.026525407297299</v>
       </c>
       <c r="C18">
-        <v>0.210783394664773</v>
+        <v>0.2334531331413388</v>
       </c>
       <c r="D18">
-        <v>0.1105273071305533</v>
+        <v>0.1149674768132627</v>
       </c>
       <c r="E18">
-        <v>0.08445411625956822</v>
+        <v>0.08537659213588711</v>
       </c>
       <c r="F18">
-        <v>0.4780181368249075</v>
+        <v>0.4464696859032742</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07172350676153627</v>
+        <v>0.0717707572882631</v>
       </c>
       <c r="I18">
-        <v>0.002337084361022868</v>
+        <v>0.002903899416894618</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146320727</v>
       </c>
       <c r="K18">
-        <v>0.2608866818328259</v>
+        <v>0.2340807978712149</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1217406248765993</v>
       </c>
       <c r="M18">
-        <v>1.19868120731357</v>
+        <v>0.06429717418857628</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.339634509027924</v>
+        <v>1.198805761249332</v>
       </c>
       <c r="P18">
-        <v>0.7323483307230916</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.30718256736985</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3396344381690142</v>
+      </c>
+      <c r="R18">
+        <v>0.7276093565330086</v>
+      </c>
+      <c r="S18">
+        <v>1.205382656426366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.058811694397406</v>
+        <v>1.006761533452675</v>
       </c>
       <c r="C19">
-        <v>0.2155058072672631</v>
+        <v>0.2410708904335905</v>
       </c>
       <c r="D19">
-        <v>0.1024760072236646</v>
+        <v>0.1070621505364571</v>
       </c>
       <c r="E19">
-        <v>0.2002290423443043</v>
+        <v>0.201294629304428</v>
       </c>
       <c r="F19">
-        <v>0.519451520568893</v>
+        <v>0.4838364713964438</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02689463360501776</v>
+        <v>0.02695707589115415</v>
       </c>
       <c r="I19">
-        <v>0.002508296668592536</v>
+        <v>0.003099301749902139</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768438788</v>
       </c>
       <c r="K19">
-        <v>0.2828579319810132</v>
+        <v>0.2521718939021618</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1287516421655326</v>
       </c>
       <c r="M19">
-        <v>1.192551276337582</v>
+        <v>0.07089709214818996</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.4997209213218667</v>
+        <v>1.192473842843413</v>
       </c>
       <c r="P19">
-        <v>0.7291249140915248</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.439239497221536</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4997343025211833</v>
+      </c>
+      <c r="R19">
+        <v>0.7197992745540027</v>
+      </c>
+      <c r="S19">
+        <v>1.322888986154354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.091323327229475</v>
+        <v>1.028569773432963</v>
       </c>
       <c r="C20">
-        <v>0.2326336543847134</v>
+        <v>0.2654446466711846</v>
       </c>
       <c r="D20">
-        <v>0.09529896783947578</v>
+        <v>0.1004740552208503</v>
       </c>
       <c r="E20">
-        <v>0.4983976511121639</v>
+        <v>0.4995554046051254</v>
       </c>
       <c r="F20">
-        <v>0.5996087022495473</v>
+        <v>0.5552716823826671</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.002568030393099274</v>
+        <v>0.002657223530452058</v>
       </c>
       <c r="I20">
-        <v>0.003111184770767217</v>
+        <v>0.003713712302846339</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>0.3198459239126805</v>
+        <v>0.2814667932124877</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1380307320333323</v>
       </c>
       <c r="M20">
-        <v>1.244766126883889</v>
+        <v>0.08440855885756449</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8254198852467667</v>
+        <v>1.244020691424339</v>
       </c>
       <c r="P20">
-        <v>0.7212377644894139</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.676814885680074</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.8253448928506302</v>
+      </c>
+      <c r="R20">
+        <v>0.7048529763099172</v>
+      </c>
+      <c r="S20">
+        <v>1.530280486991558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.227844891824645</v>
+        <v>1.15177476341168</v>
       </c>
       <c r="C21">
-        <v>0.2596083473832635</v>
+        <v>0.3004731675956691</v>
       </c>
       <c r="D21">
-        <v>0.1043433662242066</v>
+        <v>0.1107009278215969</v>
       </c>
       <c r="E21">
-        <v>0.5868636501784223</v>
+        <v>0.5876955836619473</v>
       </c>
       <c r="F21">
-        <v>0.6495593176616978</v>
+        <v>0.5982696260997074</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.004414495321698908</v>
+        <v>0.004477969057872788</v>
       </c>
       <c r="I21">
-        <v>0.004468394284170785</v>
+        <v>0.005021023082668385</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>0.3293565374723784</v>
+        <v>0.2863020882753311</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1341728511876035</v>
       </c>
       <c r="M21">
-        <v>1.399423371230768</v>
+        <v>0.09429083354963552</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9564668636930875</v>
+        <v>1.397677861086464</v>
       </c>
       <c r="P21">
-        <v>0.6884142604983245</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.7809726398404</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.956118359861307</v>
+      </c>
+      <c r="R21">
+        <v>0.6735629356801516</v>
+      </c>
+      <c r="S21">
+        <v>1.613010613221007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.319979456529524</v>
+        <v>1.235270347498414</v>
       </c>
       <c r="C22">
-        <v>0.275570825415187</v>
+        <v>0.3214016002220319</v>
       </c>
       <c r="D22">
-        <v>0.1105155581179602</v>
+        <v>0.1176388644662296</v>
       </c>
       <c r="E22">
-        <v>0.6279074376235627</v>
+        <v>0.6285059887318738</v>
       </c>
       <c r="F22">
-        <v>0.6810987349583684</v>
+        <v>0.6254271057890222</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.005824287042225929</v>
+        <v>0.005856529967509405</v>
       </c>
       <c r="I22">
-        <v>0.005260309372030036</v>
+        <v>0.00568253264624996</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>0.3353424229060735</v>
+        <v>0.2893466588295723</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1315789401407663</v>
       </c>
       <c r="M22">
-        <v>1.500446478778855</v>
+        <v>0.1011691672798953</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.026360618391287</v>
+        <v>1.498011815544061</v>
       </c>
       <c r="P22">
-        <v>0.6674088452055342</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.845277597559488</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.02581425100675</v>
+      </c>
+      <c r="R22">
+        <v>0.6537832992758403</v>
+      </c>
+      <c r="S22">
+        <v>1.663911832069743</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.273350672981024</v>
+        <v>1.19316636399526</v>
       </c>
       <c r="C23">
-        <v>0.2657120001438926</v>
+        <v>0.3087315298940325</v>
       </c>
       <c r="D23">
-        <v>0.1070118180178525</v>
+        <v>0.1137160629199556</v>
       </c>
       <c r="E23">
-        <v>0.6060112425631345</v>
+        <v>0.6067344089259166</v>
       </c>
       <c r="F23">
-        <v>0.6657517502335324</v>
+        <v>0.6123533595571047</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.005054771437391525</v>
+        <v>0.005104798302393188</v>
       </c>
       <c r="I23">
-        <v>0.004542765154622153</v>
+        <v>0.004975897179748223</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>0.3333605276144205</v>
+        <v>0.2888074302754404</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1333267700087006</v>
       </c>
       <c r="M23">
-        <v>1.446645084333255</v>
+        <v>0.09791795116082014</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9890746777122743</v>
+        <v>1.444580994244802</v>
       </c>
       <c r="P23">
-        <v>0.6788283234747419</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.815770156396411</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.9886352574283421</v>
+      </c>
+      <c r="R23">
+        <v>0.6643497770047686</v>
+      </c>
+      <c r="S23">
+        <v>1.641276207847028</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.092390986026402</v>
+        <v>1.029183284964745</v>
       </c>
       <c r="C24">
-        <v>0.2308895131689326</v>
+        <v>0.263739385493011</v>
       </c>
       <c r="D24">
-        <v>0.09409697885030255</v>
+        <v>0.09925392409783029</v>
       </c>
       <c r="E24">
-        <v>0.5232783631885169</v>
+        <v>0.5244517958173773</v>
       </c>
       <c r="F24">
-        <v>0.6064025779085682</v>
+        <v>0.5615252433360638</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.002584558920215363</v>
+        <v>0.002675690169705147</v>
       </c>
       <c r="I24">
-        <v>0.002661218319117253</v>
+        <v>0.003165402405744366</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>0.3243845224734443</v>
+        <v>0.2853647202025975</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1395472278658687</v>
       </c>
       <c r="M24">
-        <v>1.242953032784953</v>
+        <v>0.08582356321215912</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8481628868917852</v>
+        <v>1.242187814715976</v>
       </c>
       <c r="P24">
-        <v>0.7228579713104654</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.699495237992011</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.8480860783456379</v>
+      </c>
+      <c r="R24">
+        <v>0.705503738240532</v>
+      </c>
+      <c r="S24">
+        <v>1.550893754748557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8967000039547486</v>
+        <v>0.8511399464089209</v>
       </c>
       <c r="C25">
-        <v>0.1939201519754619</v>
+        <v>0.216247533632</v>
       </c>
       <c r="D25">
-        <v>0.08017032104299204</v>
+        <v>0.08370866517014974</v>
       </c>
       <c r="E25">
-        <v>0.434377194016804</v>
+        <v>0.4359955104986426</v>
       </c>
       <c r="F25">
-        <v>0.544905771564693</v>
+        <v>0.5087899304473211</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.0007845982273144703</v>
+        <v>0.0008698340810187055</v>
       </c>
       <c r="I25">
-        <v>0.001427803745881917</v>
+        <v>0.001881959534533628</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.3158090691324844</v>
+        <v>0.2824398358418847</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1466404687285916</v>
       </c>
       <c r="M25">
-        <v>1.023596532113771</v>
+        <v>0.07488148282811835</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6967324741165939</v>
+        <v>1.024034867726328</v>
       </c>
       <c r="P25">
-        <v>0.7727400561535785</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.581128760599825</v>
+        <v>0.6969692867438155</v>
+      </c>
+      <c r="R25">
+        <v>0.7523332565128866</v>
+      </c>
+      <c r="S25">
+        <v>1.459135045294204</v>
       </c>
     </row>
   </sheetData>
